--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="97">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">правая</t>
   </si>
   <si>
-    <t xml:space="preserve">наружнее</t>
+    <t xml:space="preserve">наружное</t>
   </si>
   <si>
     <t xml:space="preserve">Кроссрол вперёд на правой</t>
@@ -94,34 +94,31 @@
     <t xml:space="preserve">Внутренний аксель на левой</t>
   </si>
   <si>
-    <t xml:space="preserve">внутренее</t>
-  </si>
-  <si>
     <t xml:space="preserve">Внутренний аксель на правой</t>
   </si>
   <si>
-    <t xml:space="preserve">Циркуль внутрь вправо на правой</t>
+    <t xml:space="preserve">Циркуль вперед внутрь на правой</t>
   </si>
   <si>
-    <t xml:space="preserve">Циркуль внутрь влево на правой</t>
+    <t xml:space="preserve">Циркуль назад внутрь на правой</t>
   </si>
   <si>
-    <t xml:space="preserve">Циркуль наружу влево на правой</t>
+    <t xml:space="preserve">Циркуль вперед наружу на правой</t>
   </si>
   <si>
-    <t xml:space="preserve">Циркуль наружу вправо на правой</t>
+    <t xml:space="preserve">Циркуль назад наружу на правой</t>
   </si>
   <si>
-    <t xml:space="preserve">Циркуль внутрь вправо на левой</t>
+    <t xml:space="preserve">Циркуль назад внутрь на левой</t>
   </si>
   <si>
-    <t xml:space="preserve">Циркуль внутрь влево на левой</t>
+    <t xml:space="preserve">Циркуль вперед внутрь на левой</t>
   </si>
   <si>
-    <t xml:space="preserve">Циркуль наружу влево на левой</t>
+    <t xml:space="preserve">Циркуль назад наружу на левой</t>
   </si>
   <si>
-    <t xml:space="preserve">Циркуль наружу вправо на левой</t>
+    <t xml:space="preserve">Циркуль вперед наружу на левой</t>
   </si>
   <si>
     <t xml:space="preserve">Козлик на правой</t>
@@ -152,9 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">Выпад назад внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">правая.</t>
   </si>
   <si>
     <t xml:space="preserve">Выпад назад внутрь на левой</t>
@@ -767,9 +761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>467640</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:colOff>466920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -782,8 +776,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16163280" y="2384640"/>
-          <a:ext cx="8497080" cy="7143120"/>
+          <a:off x="16668720" y="3089160"/>
+          <a:ext cx="8519400" cy="7142400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,13 +799,13 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G87" activeCellId="0" sqref="G87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
@@ -846,7 +840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -879,7 +873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -905,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
@@ -934,7 +928,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
         <v>18</v>
       </c>
@@ -963,7 +957,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
         <v>19</v>
       </c>
@@ -992,7 +986,7 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1015,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
         <v>21</v>
       </c>
@@ -1050,7 +1044,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1073,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1089,8 +1083,8 @@
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>24</v>
+      <c r="D10" s="29" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>10</v>
@@ -1105,9 +1099,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -1119,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F11" s="12" t="n">
         <v>0</v>
@@ -1131,9 +1125,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -1147,8 +1141,8 @@
       <c r="E12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>11</v>
+      <c r="F12" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" s="13" t="n">
         <v>-180</v>
@@ -1157,9 +1151,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>16</v>
@@ -1173,8 +1167,8 @@
       <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>11</v>
+      <c r="F13" s="12" t="n">
+        <v>180</v>
       </c>
       <c r="G13" s="13" t="n">
         <v>180</v>
@@ -1183,9 +1177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>16</v>
@@ -1209,9 +1203,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>16</v>
@@ -1235,9 +1229,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>15</v>
@@ -1261,9 +1255,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -1287,9 +1281,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>15</v>
@@ -1313,9 +1307,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>15</v>
@@ -1339,9 +1333,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>15</v>
@@ -1350,10 +1344,10 @@
         <v>16</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="12" t="n">
         <v>0</v>
@@ -1365,9 +1359,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>16</v>
@@ -1376,10 +1370,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="12" t="n">
         <v>0</v>
@@ -1391,9 +1385,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>16</v>
@@ -1417,9 +1411,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>15</v>
@@ -1443,9 +1437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>16</v>
@@ -1469,9 +1463,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>15</v>
@@ -1495,9 +1489,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>16</v>
@@ -1521,9 +1515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>15</v>
@@ -1547,15 +1541,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>10</v>
@@ -1573,9 +1567,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>15</v>
@@ -1599,9 +1593,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>16</v>
@@ -1610,10 +1604,10 @@
         <v>16</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="12" t="n">
         <v>0</v>
@@ -1625,9 +1619,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>15</v>
@@ -1636,10 +1630,10 @@
         <v>15</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="12" t="n">
         <v>0</v>
@@ -1651,9 +1645,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>16</v>
@@ -1662,10 +1656,10 @@
         <v>16</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="12" t="n">
         <v>180</v>
@@ -1677,9 +1671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>15</v>
@@ -1688,10 +1682,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="12" t="n">
         <v>180</v>
@@ -1703,9 +1697,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>16</v>
@@ -1732,9 +1726,9 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>15</v>
@@ -1761,9 +1755,9 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>16</v>
@@ -1790,9 +1784,9 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>15</v>
@@ -1819,9 +1813,9 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>9</v>
@@ -1845,9 +1839,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>9</v>
@@ -1871,9 +1865,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>9</v>
@@ -1897,9 +1891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>9</v>
@@ -1923,9 +1917,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>9</v>
@@ -1949,9 +1943,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>9</v>
@@ -1975,9 +1969,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>9</v>
@@ -2001,9 +1995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>9</v>
@@ -2027,9 +2021,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>15</v>
@@ -2038,10 +2032,10 @@
         <v>16</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" s="12" t="n">
         <v>0</v>
@@ -2053,9 +2047,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>16</v>
@@ -2064,10 +2058,10 @@
         <v>15</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" s="12" t="n">
         <v>0</v>
@@ -2079,9 +2073,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>16</v>
@@ -2090,10 +2084,10 @@
         <v>16</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" s="12" t="n">
         <v>0</v>
@@ -2105,9 +2099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>15</v>
@@ -2116,10 +2110,10 @@
         <v>15</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F49" s="12" t="n">
         <v>0</v>
@@ -2131,9 +2125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>16</v>
@@ -2142,10 +2136,10 @@
         <v>16</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" s="12" t="n">
         <v>180</v>
@@ -2157,9 +2151,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>15</v>
@@ -2168,10 +2162,10 @@
         <v>15</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F51" s="12" t="n">
         <v>180</v>
@@ -2183,9 +2177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>16</v>
@@ -2209,9 +2203,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
@@ -2235,9 +2229,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>16</v>
@@ -2261,9 +2255,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>16</v>
@@ -2287,9 +2281,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>15</v>
@@ -2313,9 +2307,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>15</v>
@@ -2339,9 +2333,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>15</v>
@@ -2365,9 +2359,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>15</v>
@@ -2391,9 +2385,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>16</v>
@@ -2417,9 +2411,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>16</v>
@@ -2443,9 +2437,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>16</v>
@@ -2469,9 +2463,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
@@ -2495,9 +2489,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>15</v>
@@ -2521,9 +2515,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>15</v>
@@ -2547,9 +2541,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>15</v>
@@ -2573,9 +2567,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>15</v>
@@ -2599,9 +2593,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>16</v>
@@ -2628,9 +2622,9 @@
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>15</v>
@@ -2654,9 +2648,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>16</v>
@@ -2680,9 +2674,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>15</v>
@@ -2706,9 +2700,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>16</v>
@@ -2732,9 +2726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>15</v>
@@ -2758,9 +2752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>16</v>
@@ -2784,9 +2778,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>15</v>
@@ -2810,9 +2804,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>16</v>
@@ -2836,9 +2830,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>15</v>
@@ -2862,9 +2856,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>16</v>
@@ -2888,9 +2882,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>15</v>
@@ -2914,9 +2908,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>16</v>
@@ -2940,9 +2934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>15</v>
@@ -2968,7 +2962,7 @@
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>9</v>

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">endEdge</t>
   </si>
   <si>
-    <t xml:space="preserve">translationDirection</t>
+    <t xml:space="preserve">transitionDirection</t>
   </si>
   <si>
     <t xml:space="preserve">rotationDirection</t>
@@ -79,67 +79,13 @@
     <t xml:space="preserve">наружное</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Кроссролл </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">вперёд с правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Кроссролл </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">назад с левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Кроссролл </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">назад с правой</t>
-    </r>
+    <t xml:space="preserve">Кроссролл вперёд с правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кроссролл назад с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кроссролл назад с правой</t>
   </si>
   <si>
     <t xml:space="preserve">Верёвочка на левой</t>
@@ -178,25 +124,7 @@
     <t xml:space="preserve">Циркуль вперед наружу на левой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Козлик с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
+    <t xml:space="preserve">Козлик с левой</t>
   </si>
   <si>
     <t xml:space="preserve">два ребра</t>
@@ -400,775 +328,109 @@
     <t xml:space="preserve">тройка вперед наружу на левой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">тройка вперед внутрь на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">тройка назад наружу на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">тройка назад внутрь на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
+    <t xml:space="preserve">тройка вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тройка назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тройка назад внутрь на левой</t>
   </si>
   <si>
     <t xml:space="preserve">крюк вперед наружу на правой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">крюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед внутрь на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">крюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад наружу на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">крюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад внутрь на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">крюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед наружу на левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">крюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед внутрь на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">крюк </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">назад наружу на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">крюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад внутрь на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
+    <t xml:space="preserve">крюк вперед внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк вперед наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк назад внутрь на левой</t>
   </si>
   <si>
     <t xml:space="preserve">выкрюк вперед наружу на правой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">выкрюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед внутрь на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">выкрюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад наружу на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">выкрюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад внутрь на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">выкрюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед наружу на левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">выкрюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед внутрь на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">выкрюк </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">назад наружу на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">выкрюк</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад внутрь на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
+    <t xml:space="preserve">выкрюк вперед внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк вперед наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк назад внутрь на левой</t>
   </si>
   <si>
     <t xml:space="preserve">петля вперед наружу на правой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">петля</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед внутрь на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">петля</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад наружу на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">петля</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад внутрь на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">петля</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед наружу на левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">петля</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед внутрь на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">петля </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">назад наружу на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">петля</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад внутрь на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
+    <t xml:space="preserve">петля вперед внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля вперед наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля назад внутрь на левой</t>
   </si>
   <si>
     <t xml:space="preserve">твизл вперед наружу на правой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">твизл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед внутрь на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">твизл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад наружу на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">твизл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад внутрь на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">твизл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед наружу на левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">твизл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед внутрь на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">твизл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад наружу на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">твизл</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад внутрь на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
+    <t xml:space="preserve">твизл вперед внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл вперед наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл назад внутрь на левой</t>
   </si>
   <si>
     <t xml:space="preserve">моухок вперёд внутрь с правой</t>
@@ -1180,171 +442,25 @@
     <t xml:space="preserve">моухок вперёд внутрь с левой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">моухок вперёд наружу с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
+    <t xml:space="preserve">моухок вперёд наружу с левой</t>
   </si>
   <si>
     <t xml:space="preserve">чиктао вперёд внутрь с правой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">чиктао</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперёд наружу с правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">чиктао</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">назад</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> наружу с правой</t>
-    </r>
+    <t xml:space="preserve">чиктао вперёд наружу с правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чиктао назад наружу с правой</t>
   </si>
   <si>
     <t xml:space="preserve">чиктао вперёд внутрь с левой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">чиктао</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперёд наружу с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">чиктао</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">назад</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> наружу с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
+    <t xml:space="preserve">чиктао вперёд наружу с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чиктао назад наружу с левой</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1415,12 +531,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1593,7 +703,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1694,7 +804,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1704,10 +814,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1732,10 +838,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1821,9 +923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>466560</xdr:colOff>
+      <xdr:colOff>466200</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1836,8 +938,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16812720" y="2605320"/>
-          <a:ext cx="8530560" cy="7142040"/>
+          <a:off x="16812360" y="2605320"/>
+          <a:ext cx="8529840" cy="7141680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1859,8 +961,8 @@
   </sheetPr>
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J134" activeCellId="0" sqref="J134"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1872,7 +974,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.62"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="12.7"/>
   </cols>
   <sheetData>
@@ -2081,7 +1183,7 @@
       <c r="K7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2110,28 +1212,28 @@
       <c r="K8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="32" t="n">
+      <c r="F9" s="31" t="n">
         <v>180</v>
       </c>
-      <c r="G9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34" t="n">
+      <c r="G9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="33" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="16"/>
@@ -2148,7 +1250,7 @@
       <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -2792,7 +1894,7 @@
       <c r="K34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -2821,7 +1923,7 @@
       <c r="K35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -2850,28 +1952,28 @@
       <c r="K36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="32" t="n">
+      <c r="F37" s="31" t="n">
         <v>180</v>
       </c>
-      <c r="G37" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="34" t="n">
+      <c r="G37" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="33" t="n">
         <v>1</v>
       </c>
       <c r="I37" s="16"/>
@@ -4263,7 +3365,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="10" t="s">
         <v>106</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -4292,7 +3394,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B92" s="11" t="s">
@@ -4321,7 +3423,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -4350,7 +3452,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="10" t="s">
         <v>109</v>
       </c>
       <c r="B94" s="11" t="s">
@@ -4379,7 +3481,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B95" s="11" t="s">
@@ -4408,7 +3510,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B96" s="11" t="s">
@@ -4437,7 +3539,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -4495,7 +3597,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="35" t="s">
+      <c r="A99" s="10" t="s">
         <v>114</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -4524,7 +3626,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="35" t="s">
+      <c r="A100" s="10" t="s">
         <v>115</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -4553,7 +3655,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="35" t="s">
+      <c r="A101" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B101" s="11" t="s">
@@ -4582,7 +3684,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B102" s="11" t="s">
@@ -4611,7 +3713,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B103" s="11" t="s">
@@ -4640,7 +3742,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="35" t="s">
+      <c r="A104" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -4669,7 +3771,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="35" t="s">
+      <c r="A105" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B105" s="11" t="s">
@@ -4727,7 +3829,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="35" t="s">
+      <c r="A107" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B107" s="11" t="s">
@@ -4756,7 +3858,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="35" t="s">
+      <c r="A108" s="10" t="s">
         <v>123</v>
       </c>
       <c r="B108" s="11" t="s">
@@ -4785,7 +3887,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B109" s="11" t="s">
@@ -4814,7 +3916,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="35" t="s">
+      <c r="A110" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B110" s="11" t="s">
@@ -4843,7 +3945,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="35" t="s">
+      <c r="A111" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4872,7 +3974,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="35" t="s">
+      <c r="A112" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B112" s="11" t="s">
@@ -4901,7 +4003,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="35" t="s">
+      <c r="A113" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B113" s="11" t="s">
@@ -4959,7 +4061,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="10" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
@@ -4988,7 +4090,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="35" t="s">
+      <c r="A116" s="10" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -5017,7 +4119,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="35" t="s">
+      <c r="A117" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
@@ -5046,7 +4148,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
@@ -5075,7 +4177,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="35" t="s">
+      <c r="A119" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -5104,7 +4206,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="35" t="s">
+      <c r="A120" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
@@ -5133,7 +4235,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="35" t="s">
+      <c r="A121" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
@@ -5191,7 +4293,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="35" t="s">
+      <c r="A123" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B123" s="11" t="s">
@@ -5220,7 +4322,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="35" t="s">
+      <c r="A124" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B124" s="11" t="s">
@@ -5249,7 +4351,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="35" t="s">
+      <c r="A125" s="10" t="s">
         <v>132</v>
       </c>
       <c r="B125" s="11" t="s">
@@ -5278,7 +4380,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="35" t="s">
+      <c r="A126" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B126" s="11" t="s">
@@ -5307,7 +4409,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="35" t="s">
+      <c r="A127" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B127" s="11" t="s">
@@ -5336,7 +4438,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="35" t="s">
+      <c r="A128" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B128" s="11" t="s">
@@ -5365,7 +4467,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="35" t="s">
+      <c r="A129" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B129" s="11" t="s">
@@ -5527,7 +4629,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="35" t="s">
+      <c r="A135" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B135" s="11" t="s">
@@ -5556,7 +4658,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="35" t="s">
+      <c r="A136" s="10" t="s">
         <v>143</v>
       </c>
       <c r="B136" s="11" t="s">
@@ -5614,7 +4716,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="35" t="s">
+      <c r="A138" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B138" s="11" t="s">
@@ -5643,7 +4745,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="35" t="s">
+      <c r="A139" s="10" t="s">
         <v>146</v>
       </c>
       <c r="B139" s="11" t="s">

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -613,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -677,6 +677,62 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -703,7 +759,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,6 +896,62 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,9 +1035,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>466200</xdr:colOff>
+      <xdr:colOff>465840</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -939,7 +1051,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16812360" y="2605320"/>
-          <a:ext cx="8529840" cy="7141680"/>
+          <a:ext cx="8529480" cy="7141320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -961,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1293,33 +1405,33 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="n">
+      <c r="F12" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="38" t="n">
         <v>-360</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="H12" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="40" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1340,12 +1452,12 @@
       <c r="G13" s="14" t="n">
         <v>360</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1366,12 +1478,12 @@
       <c r="G14" s="14" t="n">
         <v>360</v>
       </c>
-      <c r="H14" s="15" t="n">
+      <c r="H14" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -1392,12 +1504,12 @@
       <c r="G15" s="14" t="n">
         <v>-360</v>
       </c>
-      <c r="H15" s="15" t="n">
+      <c r="H15" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1418,12 +1530,12 @@
       <c r="G16" s="14" t="n">
         <v>-360</v>
       </c>
-      <c r="H16" s="15" t="n">
+      <c r="H16" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1444,12 +1556,12 @@
       <c r="G17" s="14" t="n">
         <v>360</v>
       </c>
-      <c r="H17" s="15" t="n">
+      <c r="H17" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -1470,33 +1582,33 @@
       <c r="G18" s="14" t="n">
         <v>360</v>
       </c>
-      <c r="H18" s="15" t="n">
+      <c r="H18" s="41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14" t="n">
+      <c r="F19" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="46" t="n">
         <v>-360</v>
       </c>
-      <c r="H19" s="15" t="n">
+      <c r="H19" s="47" t="n">
         <v>0</v>
       </c>
     </row>

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="148">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">isDifficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSequence</t>
   </si>
   <si>
     <t xml:space="preserve">Фонарик вперёд</t>
@@ -1035,9 +1038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>465840</xdr:colOff>
+      <xdr:colOff>465480</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1051,7 +1054,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16812360" y="2605320"/>
-          <a:ext cx="8529480" cy="7141320"/>
+          <a:ext cx="8529120" cy="7140960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1118,22 +1121,25 @@
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0</v>
@@ -1146,27 +1152,27 @@
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>180</v>
@@ -1180,19 +1186,19 @@
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="22" t="n">
         <v>0</v>
@@ -1209,19 +1215,19 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0</v>
@@ -1238,19 +1244,19 @@
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>180</v>
@@ -1267,19 +1273,19 @@
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>180</v>
@@ -1296,19 +1302,19 @@
     </row>
     <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>180</v>
@@ -1325,19 +1331,19 @@
     </row>
     <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" s="30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="31" t="n">
         <v>180</v>
@@ -1354,19 +1360,19 @@
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0</v>
@@ -1380,19 +1386,19 @@
     </row>
     <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="13" t="n">
         <v>0</v>
@@ -1406,19 +1412,19 @@
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="37" t="n">
         <v>0</v>
@@ -1432,19 +1438,19 @@
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="13" t="n">
         <v>180</v>
@@ -1458,19 +1464,19 @@
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="13" t="n">
         <v>0</v>
@@ -1484,19 +1490,19 @@
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="13" t="n">
         <v>180</v>
@@ -1510,19 +1516,19 @@
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="13" t="n">
         <v>180</v>
@@ -1536,19 +1542,19 @@
     </row>
     <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="13" t="n">
         <v>0</v>
@@ -1562,19 +1568,19 @@
     </row>
     <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="13" t="n">
         <v>180</v>
@@ -1588,19 +1594,19 @@
     </row>
     <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="45" t="n">
         <v>0</v>
@@ -1614,19 +1620,19 @@
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="13" t="n">
         <v>0</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" s="13" t="n">
         <v>0</v>
@@ -1666,19 +1672,19 @@
     </row>
     <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="13" t="n">
         <v>0</v>
@@ -1692,19 +1698,19 @@
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="13" t="n">
         <v>0</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="13" t="n">
         <v>0</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="13" t="n">
         <v>0</v>
@@ -1770,19 +1776,19 @@
     </row>
     <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" s="13" t="n">
         <v>180</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" s="13" t="n">
         <v>180</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="13" t="n">
         <v>180</v>
@@ -1848,19 +1854,19 @@
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="13" t="n">
         <v>180</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" s="13" t="n">
         <v>0</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="13" t="n">
         <v>0</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" s="13" t="n">
         <v>180</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F33" s="13" t="n">
         <v>180</v>
@@ -1978,19 +1984,19 @@
     </row>
     <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>16</v>
-      </c>
       <c r="D34" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="22" t="n">
         <v>0</v>
@@ -2007,19 +2013,19 @@
     </row>
     <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="13" t="n">
         <v>0</v>
@@ -2036,19 +2042,19 @@
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D36" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="13" t="n">
         <v>180</v>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" s="31" t="n">
         <v>180</v>
@@ -2094,19 +2100,19 @@
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" s="13" t="n">
         <v>0</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F39" s="13" t="n">
         <v>0</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" s="13" t="n">
         <v>0</v>
@@ -2172,19 +2178,19 @@
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" s="13" t="n">
         <v>0</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" s="13" t="n">
         <v>0</v>
@@ -2224,19 +2230,19 @@
     </row>
     <row r="43" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" s="13" t="n">
         <v>0</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F44" s="13" t="n">
         <v>0</v>
@@ -2276,19 +2282,19 @@
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" s="13" t="n">
         <v>0</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F46" s="13" t="n">
         <v>0</v>
@@ -2328,19 +2334,19 @@
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F47" s="13" t="n">
         <v>0</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F48" s="13" t="n">
         <v>0</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49" s="13" t="n">
         <v>0</v>
@@ -2406,19 +2412,19 @@
     </row>
     <row r="50" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50" s="13" t="n">
         <v>180</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" s="13" t="n">
         <v>180</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="52" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F52" s="13" t="n">
         <v>0</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="53" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" s="13" t="n">
         <v>0</v>
@@ -2510,19 +2516,19 @@
     </row>
     <row r="54" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" s="13" t="n">
         <v>180</v>
@@ -2536,19 +2542,19 @@
     </row>
     <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" s="13" t="n">
         <v>180</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="56" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" s="13" t="n">
         <v>0</v>
@@ -2588,19 +2594,19 @@
     </row>
     <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F57" s="13" t="n">
         <v>0</v>
@@ -2614,19 +2620,19 @@
     </row>
     <row r="58" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" s="13" t="n">
         <v>180</v>
@@ -2640,19 +2646,19 @@
     </row>
     <row r="59" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F59" s="13" t="n">
         <v>180</v>
@@ -2666,19 +2672,19 @@
     </row>
     <row r="60" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F60" s="13" t="n">
         <v>0</v>
@@ -2692,19 +2698,19 @@
     </row>
     <row r="61" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" s="13" t="n">
         <v>0</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="62" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F62" s="13" t="n">
         <v>180</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="63" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" s="13" t="n">
         <v>180</v>
@@ -2770,19 +2776,19 @@
     </row>
     <row r="64" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F64" s="13" t="n">
         <v>0</v>
@@ -2796,19 +2802,19 @@
     </row>
     <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" s="13" t="n">
         <v>0</v>
@@ -2822,19 +2828,19 @@
     </row>
     <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F66" s="13" t="n">
         <v>180</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="67" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" s="13" t="n">
         <v>180</v>
@@ -2874,19 +2880,19 @@
     </row>
     <row r="68" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D68" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F68" s="13" t="n">
         <v>0</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F69" s="13" t="n">
         <v>0</v>
@@ -2929,19 +2935,19 @@
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D70" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" s="13" t="n">
         <v>0</v>
@@ -2955,19 +2961,19 @@
     </row>
     <row r="71" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" s="13" t="n">
         <v>0</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="72" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D72" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F72" s="13" t="n">
         <v>0</v>
@@ -3007,19 +3013,19 @@
     </row>
     <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F73" s="13" t="n">
         <v>0</v>
@@ -3033,19 +3039,19 @@
     </row>
     <row r="74" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D74" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F74" s="13" t="n">
         <v>180</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="75" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F75" s="13" t="n">
         <v>180</v>
@@ -3085,19 +3091,19 @@
     </row>
     <row r="76" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D76" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" s="13" t="n">
         <v>180</v>
@@ -3111,19 +3117,19 @@
     </row>
     <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" s="13" t="n">
         <v>180</v>
@@ -3137,19 +3143,19 @@
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D78" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F78" s="13" t="n">
         <v>180</v>
@@ -3163,19 +3169,19 @@
     </row>
     <row r="79" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F79" s="13" t="n">
         <v>180</v>
@@ -3189,19 +3195,19 @@
     </row>
     <row r="80" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D80" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F80" s="13" t="n">
         <v>180</v>
@@ -3215,19 +3221,19 @@
     </row>
     <row r="81" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F81" s="13" t="n">
         <v>180</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" s="13" t="n">
         <v>0</v>
@@ -3267,19 +3273,19 @@
     </row>
     <row r="83" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F83" s="13" t="n">
         <v>0</v>
@@ -3293,19 +3299,19 @@
     </row>
     <row r="84" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" s="13" t="n">
         <v>180</v>
@@ -3319,19 +3325,19 @@
     </row>
     <row r="85" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F85" s="13" t="n">
         <v>180</v>
@@ -3345,19 +3351,19 @@
     </row>
     <row r="86" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" s="13" t="n">
         <v>0</v>
@@ -3371,19 +3377,19 @@
     </row>
     <row r="87" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F87" s="13" t="n">
         <v>0</v>
@@ -3397,19 +3403,19 @@
     </row>
     <row r="88" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" s="13" t="n">
         <v>180</v>
@@ -3423,19 +3429,19 @@
     </row>
     <row r="89" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F89" s="13" t="n">
         <v>180</v>
@@ -3449,19 +3455,19 @@
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F90" s="13" t="n">
         <v>0</v>
@@ -3478,19 +3484,19 @@
     </row>
     <row r="91" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" s="13" t="n">
         <v>0</v>
@@ -3507,19 +3513,19 @@
     </row>
     <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F92" s="13" t="n">
         <v>180</v>
@@ -3536,19 +3542,19 @@
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" s="13" t="n">
         <v>180</v>
@@ -3565,19 +3571,19 @@
     </row>
     <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F94" s="13" t="n">
         <v>0</v>
@@ -3594,19 +3600,19 @@
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" s="13" t="n">
         <v>0</v>
@@ -3623,19 +3629,19 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F96" s="13" t="n">
         <v>180</v>
@@ -3652,19 +3658,19 @@
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" s="13" t="n">
         <v>180</v>
@@ -3681,19 +3687,19 @@
     </row>
     <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F98" s="13" t="n">
         <v>0</v>
@@ -3710,19 +3716,19 @@
     </row>
     <row r="99" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" s="13" t="n">
         <v>0</v>
@@ -3739,19 +3745,19 @@
     </row>
     <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F100" s="13" t="n">
         <v>180</v>
@@ -3768,19 +3774,19 @@
     </row>
     <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" s="13" t="n">
         <v>180</v>
@@ -3797,19 +3803,19 @@
     </row>
     <row r="102" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F102" s="13" t="n">
         <v>0</v>
@@ -3826,19 +3832,19 @@
     </row>
     <row r="103" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" s="13" t="n">
         <v>0</v>
@@ -3855,19 +3861,19 @@
     </row>
     <row r="104" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F104" s="13" t="n">
         <v>180</v>
@@ -3884,19 +3890,19 @@
     </row>
     <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" s="13" t="n">
         <v>180</v>
@@ -3913,19 +3919,19 @@
     </row>
     <row r="106" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F106" s="13" t="n">
         <v>0</v>
@@ -3942,19 +3948,19 @@
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" s="13" t="n">
         <v>0</v>
@@ -3971,19 +3977,19 @@
     </row>
     <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F108" s="13" t="n">
         <v>180</v>
@@ -4000,19 +4006,19 @@
     </row>
     <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" s="13" t="n">
         <v>180</v>
@@ -4029,19 +4035,19 @@
     </row>
     <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F110" s="13" t="n">
         <v>0</v>
@@ -4058,19 +4064,19 @@
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" s="13" t="n">
         <v>0</v>
@@ -4087,19 +4093,19 @@
     </row>
     <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F112" s="13" t="n">
         <v>180</v>
@@ -4116,19 +4122,19 @@
     </row>
     <row r="113" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" s="13" t="n">
         <v>180</v>
@@ -4145,19 +4151,19 @@
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" s="13" t="n">
         <v>0</v>
@@ -4174,19 +4180,19 @@
     </row>
     <row r="115" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F115" s="13" t="n">
         <v>0</v>
@@ -4203,19 +4209,19 @@
     </row>
     <row r="116" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" s="13" t="n">
         <v>180</v>
@@ -4232,19 +4238,19 @@
     </row>
     <row r="117" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F117" s="13" t="n">
         <v>180</v>
@@ -4261,19 +4267,19 @@
     </row>
     <row r="118" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" s="13" t="n">
         <v>0</v>
@@ -4290,19 +4296,19 @@
     </row>
     <row r="119" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F119" s="13" t="n">
         <v>0</v>
@@ -4319,19 +4325,19 @@
     </row>
     <row r="120" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" s="13" t="n">
         <v>180</v>
@@ -4348,19 +4354,19 @@
     </row>
     <row r="121" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F121" s="13" t="n">
         <v>180</v>
@@ -4377,19 +4383,19 @@
     </row>
     <row r="122" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F122" s="13" t="n">
         <v>0</v>
@@ -4406,19 +4412,19 @@
     </row>
     <row r="123" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" s="13" t="n">
         <v>0</v>
@@ -4435,19 +4441,19 @@
     </row>
     <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F124" s="13" t="n">
         <v>180</v>
@@ -4464,19 +4470,19 @@
     </row>
     <row r="125" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" s="13" t="n">
         <v>180</v>
@@ -4493,19 +4499,19 @@
     </row>
     <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F126" s="13" t="n">
         <v>0</v>
@@ -4522,19 +4528,19 @@
     </row>
     <row r="127" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" s="13" t="n">
         <v>0</v>
@@ -4551,19 +4557,19 @@
     </row>
     <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F128" s="13" t="n">
         <v>180</v>
@@ -4580,19 +4586,19 @@
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" s="13" t="n">
         <v>180</v>
@@ -4609,19 +4615,19 @@
     </row>
     <row r="130" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D130" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" s="13" t="n">
         <v>0</v>
@@ -4635,19 +4641,19 @@
     </row>
     <row r="131" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D131" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F131" s="13" t="n">
         <v>0</v>
@@ -4661,19 +4667,19 @@
     </row>
     <row r="132" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" s="13" t="n">
         <v>0</v>
@@ -4687,19 +4693,19 @@
     </row>
     <row r="133" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F133" s="13" t="n">
         <v>0</v>
@@ -4713,19 +4719,19 @@
     </row>
     <row r="134" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C134" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D134" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F134" s="13" t="n">
         <v>0</v>
@@ -4742,19 +4748,19 @@
     </row>
     <row r="135" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C135" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D135" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" s="13" t="n">
         <v>0</v>
@@ -4771,19 +4777,19 @@
     </row>
     <row r="136" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B136" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C136" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="D136" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" s="13" t="n">
         <v>180</v>
@@ -4800,19 +4806,19 @@
     </row>
     <row r="137" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F137" s="13" t="n">
         <v>0</v>
@@ -4829,19 +4835,19 @@
     </row>
     <row r="138" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" s="13" t="n">
         <v>0</v>
@@ -4858,19 +4864,19 @@
     </row>
     <row r="139" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" s="13" t="n">
         <v>180</v>

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="151">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">isSequence</t>
   </si>
   <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Фонарик вперёд</t>
   </si>
   <si>
@@ -464,6 +467,12 @@
   </si>
   <si>
     <t xml:space="preserve">чиктао назад наружу с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вальсовый шаг с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">последовательность</t>
   </si>
 </sst>
 </file>
@@ -473,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -534,6 +543,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="14">
@@ -762,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -955,6 +970,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,7 +1072,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16812360" y="2605320"/>
+          <a:off x="17272080" y="2605320"/>
           <a:ext cx="8529120" cy="7140960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1076,8 +1095,8 @@
   </sheetPr>
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1090,7 +1109,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="12.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="97.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1124,22 +1144,25 @@
       <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0</v>
@@ -1152,27 +1175,27 @@
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>180</v>
@@ -1186,19 +1209,19 @@
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="22" t="n">
         <v>0</v>
@@ -1215,19 +1238,19 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0</v>
@@ -1244,19 +1267,19 @@
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>180</v>
@@ -1273,19 +1296,19 @@
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>180</v>
@@ -1302,19 +1325,19 @@
     </row>
     <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>180</v>
@@ -1331,19 +1354,19 @@
     </row>
     <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="31" t="n">
         <v>180</v>
@@ -1360,19 +1383,19 @@
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0</v>
@@ -1386,19 +1409,19 @@
     </row>
     <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="13" t="n">
         <v>0</v>
@@ -1412,19 +1435,19 @@
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="37" t="n">
         <v>0</v>
@@ -1438,19 +1461,19 @@
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="13" t="n">
         <v>180</v>
@@ -1464,19 +1487,19 @@
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="13" t="n">
         <v>0</v>
@@ -1490,19 +1513,19 @@
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="13" t="n">
         <v>180</v>
@@ -1516,19 +1539,19 @@
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="13" t="n">
         <v>180</v>
@@ -1542,19 +1565,19 @@
     </row>
     <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" s="13" t="n">
         <v>0</v>
@@ -1568,19 +1591,19 @@
     </row>
     <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="13" t="n">
         <v>180</v>
@@ -1594,19 +1617,19 @@
     </row>
     <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="45" t="n">
         <v>0</v>
@@ -1620,19 +1643,19 @@
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="13" t="n">
         <v>0</v>
@@ -1646,19 +1669,19 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" s="13" t="n">
         <v>0</v>
@@ -1672,19 +1695,19 @@
     </row>
     <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="13" t="n">
         <v>0</v>
@@ -1698,19 +1721,19 @@
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="13" t="n">
         <v>0</v>
@@ -1724,19 +1747,19 @@
     </row>
     <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" s="13" t="n">
         <v>0</v>
@@ -1750,19 +1773,19 @@
     </row>
     <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" s="13" t="n">
         <v>0</v>
@@ -1776,19 +1799,19 @@
     </row>
     <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" s="13" t="n">
         <v>180</v>
@@ -1802,19 +1825,19 @@
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="13" t="n">
         <v>180</v>
@@ -1828,19 +1851,19 @@
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" s="13" t="n">
         <v>180</v>
@@ -1854,19 +1877,19 @@
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="13" t="n">
         <v>180</v>
@@ -1880,19 +1903,19 @@
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" s="13" t="n">
         <v>0</v>
@@ -1906,19 +1929,19 @@
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" s="13" t="n">
         <v>0</v>
@@ -1932,19 +1955,19 @@
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" s="13" t="n">
         <v>180</v>
@@ -1958,19 +1981,19 @@
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" s="13" t="n">
         <v>180</v>
@@ -1984,19 +2007,19 @@
     </row>
     <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="D34" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" s="22" t="n">
         <v>0</v>
@@ -2013,19 +2036,19 @@
     </row>
     <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="13" t="n">
         <v>0</v>
@@ -2042,19 +2065,19 @@
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D36" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" s="13" t="n">
         <v>180</v>
@@ -2071,19 +2094,19 @@
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" s="31" t="n">
         <v>180</v>
@@ -2100,19 +2123,19 @@
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F38" s="13" t="n">
         <v>0</v>
@@ -2126,19 +2149,19 @@
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F39" s="13" t="n">
         <v>0</v>
@@ -2152,19 +2175,19 @@
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" s="13" t="n">
         <v>0</v>
@@ -2178,19 +2201,19 @@
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" s="13" t="n">
         <v>0</v>
@@ -2204,19 +2227,19 @@
     </row>
     <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" s="13" t="n">
         <v>0</v>
@@ -2230,19 +2253,19 @@
     </row>
     <row r="43" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F43" s="13" t="n">
         <v>0</v>
@@ -2256,19 +2279,19 @@
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F44" s="13" t="n">
         <v>0</v>
@@ -2282,19 +2305,19 @@
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F45" s="13" t="n">
         <v>0</v>
@@ -2308,19 +2331,19 @@
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F46" s="13" t="n">
         <v>0</v>
@@ -2334,19 +2357,19 @@
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F47" s="13" t="n">
         <v>0</v>
@@ -2360,19 +2383,19 @@
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F48" s="13" t="n">
         <v>0</v>
@@ -2386,19 +2409,19 @@
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F49" s="13" t="n">
         <v>0</v>
@@ -2412,19 +2435,19 @@
     </row>
     <row r="50" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F50" s="13" t="n">
         <v>180</v>
@@ -2438,19 +2461,19 @@
     </row>
     <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F51" s="13" t="n">
         <v>180</v>
@@ -2464,19 +2487,19 @@
     </row>
     <row r="52" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F52" s="13" t="n">
         <v>0</v>
@@ -2490,19 +2513,19 @@
     </row>
     <row r="53" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" s="13" t="n">
         <v>0</v>
@@ -2516,19 +2539,19 @@
     </row>
     <row r="54" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F54" s="13" t="n">
         <v>180</v>
@@ -2542,19 +2565,19 @@
     </row>
     <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F55" s="13" t="n">
         <v>180</v>
@@ -2568,19 +2591,19 @@
     </row>
     <row r="56" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F56" s="13" t="n">
         <v>0</v>
@@ -2594,19 +2617,19 @@
     </row>
     <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F57" s="13" t="n">
         <v>0</v>
@@ -2620,19 +2643,19 @@
     </row>
     <row r="58" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" s="13" t="n">
         <v>180</v>
@@ -2646,19 +2669,19 @@
     </row>
     <row r="59" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F59" s="13" t="n">
         <v>180</v>
@@ -2672,19 +2695,19 @@
     </row>
     <row r="60" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F60" s="13" t="n">
         <v>0</v>
@@ -2698,19 +2721,19 @@
     </row>
     <row r="61" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61" s="13" t="n">
         <v>0</v>
@@ -2724,19 +2747,19 @@
     </row>
     <row r="62" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F62" s="13" t="n">
         <v>180</v>
@@ -2750,19 +2773,19 @@
     </row>
     <row r="63" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63" s="13" t="n">
         <v>180</v>
@@ -2776,19 +2799,19 @@
     </row>
     <row r="64" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F64" s="13" t="n">
         <v>0</v>
@@ -2802,19 +2825,19 @@
     </row>
     <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F65" s="13" t="n">
         <v>0</v>
@@ -2828,19 +2851,19 @@
     </row>
     <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F66" s="13" t="n">
         <v>180</v>
@@ -2854,19 +2877,19 @@
     </row>
     <row r="67" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67" s="13" t="n">
         <v>180</v>
@@ -2880,19 +2903,19 @@
     </row>
     <row r="68" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D68" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F68" s="13" t="n">
         <v>0</v>
@@ -2909,19 +2932,19 @@
     </row>
     <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F69" s="13" t="n">
         <v>0</v>
@@ -2935,19 +2958,19 @@
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D70" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F70" s="13" t="n">
         <v>0</v>
@@ -2961,19 +2984,19 @@
     </row>
     <row r="71" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F71" s="13" t="n">
         <v>0</v>
@@ -2987,19 +3010,19 @@
     </row>
     <row r="72" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D72" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F72" s="13" t="n">
         <v>0</v>
@@ -3013,19 +3036,19 @@
     </row>
     <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F73" s="13" t="n">
         <v>0</v>
@@ -3039,19 +3062,19 @@
     </row>
     <row r="74" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D74" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F74" s="13" t="n">
         <v>180</v>
@@ -3065,19 +3088,19 @@
     </row>
     <row r="75" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F75" s="13" t="n">
         <v>180</v>
@@ -3091,19 +3114,19 @@
     </row>
     <row r="76" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D76" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F76" s="13" t="n">
         <v>180</v>
@@ -3117,19 +3140,19 @@
     </row>
     <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F77" s="13" t="n">
         <v>180</v>
@@ -3143,19 +3166,19 @@
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D78" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F78" s="13" t="n">
         <v>180</v>
@@ -3169,19 +3192,19 @@
     </row>
     <row r="79" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F79" s="13" t="n">
         <v>180</v>
@@ -3195,19 +3218,19 @@
     </row>
     <row r="80" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D80" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F80" s="13" t="n">
         <v>180</v>
@@ -3221,19 +3244,19 @@
     </row>
     <row r="81" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F81" s="13" t="n">
         <v>180</v>
@@ -3247,19 +3270,19 @@
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F82" s="13" t="n">
         <v>0</v>
@@ -3273,19 +3296,19 @@
     </row>
     <row r="83" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F83" s="13" t="n">
         <v>0</v>
@@ -3299,19 +3322,19 @@
     </row>
     <row r="84" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F84" s="13" t="n">
         <v>180</v>
@@ -3325,19 +3348,19 @@
     </row>
     <row r="85" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F85" s="13" t="n">
         <v>180</v>
@@ -3351,19 +3374,19 @@
     </row>
     <row r="86" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F86" s="13" t="n">
         <v>0</v>
@@ -3377,19 +3400,19 @@
     </row>
     <row r="87" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F87" s="13" t="n">
         <v>0</v>
@@ -3403,19 +3426,19 @@
     </row>
     <row r="88" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F88" s="13" t="n">
         <v>180</v>
@@ -3429,19 +3452,19 @@
     </row>
     <row r="89" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F89" s="13" t="n">
         <v>180</v>
@@ -3455,19 +3478,19 @@
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F90" s="13" t="n">
         <v>0</v>
@@ -3484,19 +3507,19 @@
     </row>
     <row r="91" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F91" s="13" t="n">
         <v>0</v>
@@ -3513,19 +3536,19 @@
     </row>
     <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F92" s="13" t="n">
         <v>180</v>
@@ -3542,19 +3565,19 @@
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F93" s="13" t="n">
         <v>180</v>
@@ -3571,19 +3594,19 @@
     </row>
     <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F94" s="13" t="n">
         <v>0</v>
@@ -3600,19 +3623,19 @@
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F95" s="13" t="n">
         <v>0</v>
@@ -3629,19 +3652,19 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F96" s="13" t="n">
         <v>180</v>
@@ -3658,19 +3681,19 @@
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F97" s="13" t="n">
         <v>180</v>
@@ -3687,19 +3710,19 @@
     </row>
     <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F98" s="13" t="n">
         <v>0</v>
@@ -3716,19 +3739,19 @@
     </row>
     <row r="99" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F99" s="13" t="n">
         <v>0</v>
@@ -3745,19 +3768,19 @@
     </row>
     <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F100" s="13" t="n">
         <v>180</v>
@@ -3774,19 +3797,19 @@
     </row>
     <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F101" s="13" t="n">
         <v>180</v>
@@ -3803,19 +3826,19 @@
     </row>
     <row r="102" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F102" s="13" t="n">
         <v>0</v>
@@ -3832,19 +3855,19 @@
     </row>
     <row r="103" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F103" s="13" t="n">
         <v>0</v>
@@ -3861,19 +3884,19 @@
     </row>
     <row r="104" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F104" s="13" t="n">
         <v>180</v>
@@ -3890,19 +3913,19 @@
     </row>
     <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F105" s="13" t="n">
         <v>180</v>
@@ -3919,19 +3942,19 @@
     </row>
     <row r="106" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F106" s="13" t="n">
         <v>0</v>
@@ -3948,19 +3971,19 @@
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F107" s="13" t="n">
         <v>0</v>
@@ -3977,19 +4000,19 @@
     </row>
     <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F108" s="13" t="n">
         <v>180</v>
@@ -4006,19 +4029,19 @@
     </row>
     <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F109" s="13" t="n">
         <v>180</v>
@@ -4035,19 +4058,19 @@
     </row>
     <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F110" s="13" t="n">
         <v>0</v>
@@ -4064,19 +4087,19 @@
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F111" s="13" t="n">
         <v>0</v>
@@ -4093,19 +4116,19 @@
     </row>
     <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F112" s="13" t="n">
         <v>180</v>
@@ -4122,19 +4145,19 @@
     </row>
     <row r="113" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F113" s="13" t="n">
         <v>180</v>
@@ -4151,19 +4174,19 @@
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F114" s="13" t="n">
         <v>0</v>
@@ -4180,19 +4203,19 @@
     </row>
     <row r="115" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F115" s="13" t="n">
         <v>0</v>
@@ -4209,19 +4232,19 @@
     </row>
     <row r="116" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F116" s="13" t="n">
         <v>180</v>
@@ -4238,19 +4261,19 @@
     </row>
     <row r="117" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F117" s="13" t="n">
         <v>180</v>
@@ -4267,19 +4290,19 @@
     </row>
     <row r="118" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F118" s="13" t="n">
         <v>0</v>
@@ -4296,19 +4319,19 @@
     </row>
     <row r="119" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F119" s="13" t="n">
         <v>0</v>
@@ -4325,19 +4348,19 @@
     </row>
     <row r="120" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F120" s="13" t="n">
         <v>180</v>
@@ -4354,19 +4377,19 @@
     </row>
     <row r="121" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F121" s="13" t="n">
         <v>180</v>
@@ -4383,19 +4406,19 @@
     </row>
     <row r="122" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F122" s="13" t="n">
         <v>0</v>
@@ -4412,19 +4435,19 @@
     </row>
     <row r="123" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F123" s="13" t="n">
         <v>0</v>
@@ -4441,19 +4464,19 @@
     </row>
     <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F124" s="13" t="n">
         <v>180</v>
@@ -4470,19 +4493,19 @@
     </row>
     <row r="125" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F125" s="13" t="n">
         <v>180</v>
@@ -4499,19 +4522,19 @@
     </row>
     <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F126" s="13" t="n">
         <v>0</v>
@@ -4528,19 +4551,19 @@
     </row>
     <row r="127" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F127" s="13" t="n">
         <v>0</v>
@@ -4557,19 +4580,19 @@
     </row>
     <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F128" s="13" t="n">
         <v>180</v>
@@ -4586,19 +4609,19 @@
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F129" s="13" t="n">
         <v>180</v>
@@ -4615,19 +4638,19 @@
     </row>
     <row r="130" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B130" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C130" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D130" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F130" s="13" t="n">
         <v>0</v>
@@ -4641,19 +4664,19 @@
     </row>
     <row r="131" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B131" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C131" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D131" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F131" s="13" t="n">
         <v>0</v>
@@ -4667,19 +4690,19 @@
     </row>
     <row r="132" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F132" s="13" t="n">
         <v>0</v>
@@ -4693,19 +4716,19 @@
     </row>
     <row r="133" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F133" s="13" t="n">
         <v>0</v>
@@ -4719,19 +4742,19 @@
     </row>
     <row r="134" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B134" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D134" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F134" s="13" t="n">
         <v>0</v>
@@ -4748,19 +4771,19 @@
     </row>
     <row r="135" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B135" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C135" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D135" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F135" s="13" t="n">
         <v>0</v>
@@ -4777,19 +4800,19 @@
     </row>
     <row r="136" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D136" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F136" s="13" t="n">
         <v>180</v>
@@ -4806,19 +4829,19 @@
     </row>
     <row r="137" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F137" s="13" t="n">
         <v>0</v>
@@ -4835,19 +4858,19 @@
     </row>
     <row r="138" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F138" s="13" t="n">
         <v>0</v>
@@ -4864,19 +4887,19 @@
     </row>
     <row r="139" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F139" s="13" t="n">
         <v>180</v>
@@ -4891,15 +4914,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="10"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="15"/>
+    <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" s="14" t="n">
+        <v>180</v>
+      </c>
+      <c r="H140" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10"/>
@@ -13482,6 +13524,12 @@
       <c r="H998" s="15"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2:J140" type="list">
+      <formula1>"последовательность,спираль,подпрыжка,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -241,10 +241,10 @@
     <t xml:space="preserve">Подпрыжка назад на левой на правую с полуповоротом в лево</t>
   </si>
   <si>
-    <t xml:space="preserve">Подпрыжка вперёд на правой на левую с полным поворотом в право</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпрыжка вперёд на правой на левую с поворотом в лево</t>
+    <t xml:space="preserve">Внутренний козлик в один оборот с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внутренний козлик в один оборот с правой</t>
   </si>
   <si>
     <t xml:space="preserve">Подпрыжка назад на правой на левую с полуповоротом в право</t>
@@ -1057,9 +1057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>465480</xdr:colOff>
+      <xdr:colOff>465120</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1072,8 +1072,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17272080" y="2605320"/>
-          <a:ext cx="8529120" cy="7140960"/>
+          <a:off x="17271360" y="2605320"/>
+          <a:ext cx="8529120" cy="7140600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,8 +1095,8 @@
   </sheetPr>
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1109,7 +1109,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="12.7"/>
   </cols>
   <sheetData>
@@ -2616,7 +2616,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="48" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -4915,7 +4915,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="48" t="s">
+      <c r="A140" s="10" t="s">
         <v>149</v>
       </c>
       <c r="B140" s="11" t="s">

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -190,19 +190,19 @@
     <t xml:space="preserve">Подсечка назад на левой</t>
   </si>
   <si>
-    <t xml:space="preserve">Кораблик наружу в право</t>
+    <t xml:space="preserve">Кораблик наружу вправо</t>
   </si>
   <si>
     <t xml:space="preserve">glide</t>
   </si>
   <si>
-    <t xml:space="preserve">Кораблик наружу в лево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кораблик внутрь в право</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кораблик внутрь в лево</t>
+    <t xml:space="preserve">Кораблик наружу влево</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кораблик внутрь вправо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кораблик внутрь влево</t>
   </si>
   <si>
     <t xml:space="preserve">Бауэр внутрь на правой</t>
@@ -235,16 +235,16 @@
     <t xml:space="preserve">Простая подпрыжка назад на правой на левую</t>
   </si>
   <si>
-    <t xml:space="preserve">Подпрыжка вперёд на левой на правую с полным поворотом в право</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпрыжка вперёд на левой на правую с полным поворотом в лево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпрыжка назад на левой на правую с полуповоротом в право</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпрыжка назад на левой на правую с полуповоротом в лево</t>
+    <t xml:space="preserve">Подпрыжка вперёд на левой на правую с полным поворотом вправо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подпрыжка вперёд на левой на правую с полным поворотом влево</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подпрыжка назад на левой на правую с полуповоротом вправо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подпрыжка назад на левой на правую с полуповоротом влево</t>
   </si>
   <si>
     <t xml:space="preserve">Внутренний козлик в один оборот с левой</t>
@@ -253,10 +253,10 @@
     <t xml:space="preserve">Внутренний козлик в один оборот с правой</t>
   </si>
   <si>
-    <t xml:space="preserve">Подпрыжка назад на правой на левую с полуповоротом в право</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпрыжка назад на правой на левую с полуповоротом в лево</t>
+    <t xml:space="preserve">Подпрыжка назад на правой на левую с полуповоротом вправо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подпрыжка назад на правой на левую с полуповоротом влево</t>
   </si>
   <si>
     <t xml:space="preserve">Перетяжка вперёд внутрь на правой</t>
@@ -733,7 +733,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,20 +748,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFA2C4C9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA2C4C9"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4A7D6"/>
-        <bgColor rgb="FF9999FF"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -774,6 +774,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -938,7 +944,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -999,28 +1005,20 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1031,7 +1029,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1039,7 +1037,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1063,27 +1069,31 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1114,7 +1124,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFA2C4C9"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFF4CCCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -1134,7 +1144,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFD0E0E3"/>
       <rgbColor rgb="FFFFE599"/>
-      <rgbColor rgb="FFA2C4C9"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FFEA9999"/>
       <rgbColor rgb="FFB4A7D6"/>
       <rgbColor rgb="FFF9CB9C"/>
@@ -1170,7 +1180,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>435240</xdr:colOff>
+      <xdr:colOff>435600</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>328320</xdr:rowOff>
     </xdr:to>
@@ -1185,7 +1195,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="40408560" y="1493280"/>
+          <a:off x="40418280" y="1493280"/>
           <a:ext cx="8528760" cy="7140240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1209,20 +1219,20 @@
   <dimension ref="A1:P990"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A132" activeCellId="0" sqref="A132"/>
-      <selection pane="bottomRight" activeCell="E138" activeCellId="0" sqref="E138"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="21.11"/>
@@ -2315,7 +2325,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -3269,7 +3279,7 @@
       <c r="H73" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="J73" s="32" t="s">
+      <c r="J73" s="33" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3712,7 +3722,7 @@
       <c r="J89" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M89" s="33"/>
+      <c r="M89" s="34"/>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="18" t="s">
@@ -3745,7 +3755,7 @@
       <c r="J90" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M90" s="34" t="s">
+      <c r="M90" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3780,7 +3790,7 @@
       <c r="J91" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M91" s="34" t="s">
+      <c r="M91" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3815,7 +3825,7 @@
       <c r="J92" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M92" s="34" t="s">
+      <c r="M92" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3850,7 +3860,7 @@
       <c r="J93" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M93" s="34" t="s">
+      <c r="M93" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3885,7 +3895,7 @@
       <c r="J94" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M94" s="34" t="s">
+      <c r="M94" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3920,7 +3930,7 @@
       <c r="J95" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M95" s="34" t="s">
+      <c r="M95" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3955,7 +3965,7 @@
       <c r="J96" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M96" s="34" t="s">
+      <c r="M96" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3990,7 +4000,7 @@
       <c r="J97" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M97" s="34" t="s">
+      <c r="M97" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4025,7 +4035,7 @@
       <c r="J98" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M98" s="34" t="s">
+      <c r="M98" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4060,7 +4070,7 @@
       <c r="J99" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M99" s="34" t="s">
+      <c r="M99" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4095,7 +4105,7 @@
       <c r="J100" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M100" s="34" t="s">
+      <c r="M100" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4130,7 +4140,7 @@
       <c r="J101" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M101" s="34" t="s">
+      <c r="M101" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4165,7 +4175,7 @@
       <c r="J102" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M102" s="34" t="s">
+      <c r="M102" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4200,7 +4210,7 @@
       <c r="J103" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M103" s="34" t="s">
+      <c r="M103" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4235,7 +4245,7 @@
       <c r="J104" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M104" s="34" t="s">
+      <c r="M104" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4270,7 +4280,7 @@
       <c r="J105" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M105" s="34" t="s">
+      <c r="M105" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4305,7 +4315,7 @@
       <c r="J106" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M106" s="34" t="s">
+      <c r="M106" s="35" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4340,7 +4350,7 @@
       <c r="J107" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M107" s="34" t="s">
+      <c r="M107" s="35" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4375,7 +4385,7 @@
       <c r="J108" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M108" s="34" t="s">
+      <c r="M108" s="35" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4410,7 +4420,7 @@
       <c r="J109" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M109" s="34" t="s">
+      <c r="M109" s="35" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4445,7 +4455,7 @@
       <c r="J110" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M110" s="34" t="s">
+      <c r="M110" s="35" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4480,7 +4490,7 @@
       <c r="J111" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M111" s="34" t="s">
+      <c r="M111" s="35" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4515,7 +4525,7 @@
       <c r="J112" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M112" s="34" t="s">
+      <c r="M112" s="35" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4550,7 +4560,7 @@
       <c r="J113" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M113" s="34" t="s">
+      <c r="M113" s="35" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4585,7 +4595,7 @@
       <c r="J114" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M114" s="34" t="s">
+      <c r="M114" s="35" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4620,7 +4630,7 @@
       <c r="J115" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M115" s="34" t="s">
+      <c r="M115" s="35" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4655,7 +4665,7 @@
       <c r="J116" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M116" s="34" t="s">
+      <c r="M116" s="35" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4690,7 +4700,7 @@
       <c r="J117" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M117" s="34" t="s">
+      <c r="M117" s="35" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4725,7 +4735,7 @@
       <c r="J118" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M118" s="34" t="s">
+      <c r="M118" s="35" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4760,7 +4770,7 @@
       <c r="J119" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M119" s="34" t="s">
+      <c r="M119" s="35" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4795,7 +4805,7 @@
       <c r="J120" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M120" s="34" t="s">
+      <c r="M120" s="35" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4830,7 +4840,7 @@
       <c r="J121" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M121" s="34" t="s">
+      <c r="M121" s="35" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4981,7 +4991,7 @@
       <c r="J126" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M126" s="34" t="s">
+      <c r="M126" s="35" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5016,7 +5026,7 @@
       <c r="J127" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M127" s="34" t="s">
+      <c r="M127" s="35" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5051,7 +5061,7 @@
       <c r="J128" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M128" s="34" t="s">
+      <c r="M128" s="35" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5086,7 +5096,7 @@
       <c r="J129" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M129" s="34" t="s">
+      <c r="M129" s="35" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5121,7 +5131,7 @@
       <c r="J130" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M130" s="34" t="s">
+      <c r="M130" s="35" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5156,7 +5166,7 @@
       <c r="J131" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M131" s="34" t="s">
+      <c r="M131" s="35" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5188,7 +5198,7 @@
       <c r="J132" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K132" s="35" t="n">
+      <c r="K132" s="36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,7 +5230,7 @@
       <c r="J133" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K133" s="35" t="n">
+      <c r="K133" s="36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5255,12 +5265,12 @@
       <c r="J134" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M134" s="34" t="s">
+      <c r="M134" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="36" t="s">
+      <c r="A135" s="37" t="s">
         <v>163</v>
       </c>
       <c r="B135" s="19" t="s">
@@ -5290,12 +5300,12 @@
       <c r="J135" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M135" s="34" t="s">
+      <c r="M135" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="36" t="s">
+      <c r="A136" s="37" t="s">
         <v>164</v>
       </c>
       <c r="B136" s="19" t="s">
@@ -5325,12 +5335,12 @@
       <c r="J136" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M136" s="34" t="s">
+      <c r="M136" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="36" t="s">
+      <c r="A137" s="37" t="s">
         <v>165</v>
       </c>
       <c r="B137" s="19" t="s">
@@ -5360,12 +5370,12 @@
       <c r="J137" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M137" s="34" t="s">
+      <c r="M137" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="36" t="s">
+      <c r="A138" s="37" t="s">
         <v>166</v>
       </c>
       <c r="B138" s="19" t="s">
@@ -5395,12 +5405,12 @@
       <c r="J138" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M138" s="34" t="s">
+      <c r="M138" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="36" t="s">
+      <c r="A139" s="37" t="s">
         <v>167</v>
       </c>
       <c r="B139" s="19" t="s">
@@ -5430,12 +5440,12 @@
       <c r="J139" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M139" s="34" t="s">
+      <c r="M139" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="36" t="s">
+      <c r="A140" s="37" t="s">
         <v>168</v>
       </c>
       <c r="B140" s="19" t="s">
@@ -5465,12 +5475,12 @@
       <c r="J140" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M140" s="34" t="s">
+      <c r="M140" s="35" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="36" t="s">
+      <c r="A141" s="37" t="s">
         <v>169</v>
       </c>
       <c r="B141" s="19" t="s">
@@ -5500,7 +5510,7 @@
       <c r="J141" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M141" s="34" t="s">
+      <c r="M141" s="35" t="s">
         <v>162</v>
       </c>
     </row>

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -1219,11 +1219,11 @@
   <dimension ref="A1:P990"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="A97" activeCellId="0" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="190">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">absoluteName</t>
   </si>
   <si>
+    <t xml:space="preserve">distance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Фонарик вперёд</t>
   </si>
   <si>
@@ -217,300 +220,25 @@
     <t xml:space="preserve">Бауэр наружу на левой</t>
   </si>
   <si>
-    <t xml:space="preserve">Боковая подпрыжка правым боком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Боковая подпрыжка левым боком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Простая подпрыжка вперёд на левой на правую</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Простая подпрыжка вперёд на правой на левую</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Простая подпрыжка назад на левой на правую</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Простая подпрыжка назад на правой на левую</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпрыжка вперёд на левой на правую с полным поворотом вправо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпрыжка вперёд на левой на правую с полным поворотом влево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпрыжка назад на левой на правую с полуповоротом вправо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпрыжка назад на левой на правую с полуповоротом влево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внутренний козлик в один оборот с левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внутренний козлик в один оборот с правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпрыжка назад на правой на левую с полуповоротом вправо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпрыжка назад на правой на левую с полуповоротом влево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перетяжка вперёд внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перетяжка вперёд наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перетяжка назад внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перетяжка назад наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перетяжка вперёд внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перетяжка вперёд наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перетяжка назад внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перетяжка назад наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шоссе на правой на левую</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шоссе на левой на правую</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моухок вперёд внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моухок вперёд внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моухок вперёд наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моухок вперёд наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Толчок с хода назад вперёд наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Толчок с хода назад вперёд наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Толчок ходом назад внутрь назад внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Толчок ходом назад внутрь назад внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Толчок ходом назад внутрь назад наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Толчок ходом назад внутрь назад наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Скрестный шаг назад наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Скрестный шаг назад наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тройка вперед наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тройка вперед внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тройка назад наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тройка назад внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тройка вперед наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тройка вперед внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тройка назад наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тройка назад внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">крюк вперед наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rocker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">крюк вперед внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">крюк назад наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">крюк назад внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">крюк вперед наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">крюк вперед внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">крюк назад наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">крюк назад внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выкрюк вперед наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выкрюк вперед внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выкрюк назад наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выкрюк назад внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выкрюк вперед наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выкрюк вперед внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выкрюк назад наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выкрюк назад внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">петля вперед наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">петля вперед внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">петля назад наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">петля назад внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">петля вперед наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">петля вперед внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">петля назад наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">петля назад внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">твизл вперед наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twizzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">твизл вперед внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">твизл назад наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">твизл назад внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">твизл вперед наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">твизл вперед внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">твизл назад наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">твизл назад внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">моухок вперёд внутрь с правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">моухок вперёд наружу с правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">моухок вперёд внутрь с левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">моухок вперёд наружу с левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чиктао вперёд внутрь с правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chocktaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чиктао вперёд наружу с правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чиктао назад наружу с правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чиктао вперёд внутрь с левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чиктао вперёд наружу с левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чиктао назад наружу с левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вальсовый шаг с левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вальсовый шаг с правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">скоба вперед наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bracket</t>
-  </si>
-  <si>
+    <t xml:space="preserve">Ласточка вперед наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ласточка или ее вариации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ласточка вперед внутрь на правой</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ласточка назад наружу </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -518,7 +246,436 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">скоба</t>
+      <t xml:space="preserve">на правой</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ласточка назад внутрь </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">на правой</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ласточка вперед наружу на левой</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ласточка вперед внутрь на </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">левой</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ласточка назад наружу </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">на левой</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ласточка назад внутрь </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">на левой</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Боковая подпрыжка правым боком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Боковая подпрыжка левым боком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Простая подпрыжка вперёд на левой на правую</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Простая подпрыжка вперёд на правой на левую</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Простая подпрыжка назад на левой на правую</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Простая подпрыжка назад на правой на левую</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подпрыжка вперёд на левой на правую с полным поворотом вправо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подпрыжка вперёд на левой на правую с полным поворотом влево</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подпрыжка назад на левой на правую с полуповоротом вправо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подпрыжка назад на левой на правую с полуповоротом влево</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внутренний козлик в один оборот с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внутренний козлик в один оборот с правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подпрыжка назад на правой на левую с полуповоротом вправо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подпрыжка назад на правой на левую с полуповоротом влево</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перетяжка вперёд внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перетяжка вперёд наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перетяжка назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перетяжка назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перетяжка вперёд внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перетяжка вперёд наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перетяжка назад внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перетяжка назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шоссе на правой на левую</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шоссе на левой на правую</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моухок вперёд внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моухок вперёд внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моухок вперёд наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моухок вперёд наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толчок с хода назад вперёд наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толчок с хода назад вперёд наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толчок ходом назад внутрь назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толчок ходом назад внутрь назад внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толчок ходом назад внутрь назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толчок ходом назад внутрь назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скрестный шаг назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скрестный шаг назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тройка вперед наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тройка вперед внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тройка назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тройка назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тройка вперед наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тройка вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тройка назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тройка назад внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк вперед наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rocker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк вперед внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк вперед наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крюк назад внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк вперед наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк вперед внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк вперед наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выкрюк назад внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля вперед наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля вперед внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля вперед наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">петля назад внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл вперед наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twizzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл вперед внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл вперед наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">твизл назад внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">моухок вперёд внутрь с правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">моухок вперёд наружу с правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">моухок вперёд внутрь с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">моухок вперёд наружу с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чиктао вперёд внутрь с правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocktaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чиктао вперёд наружу с правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чиктао назад наружу с правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чиктао вперёд внутрь с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чиктао вперёд наружу с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чиктао назад наружу с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вальсовый шаг с левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вальсовый шаг с правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скоба вперед наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bracket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скоба вперед внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скоба назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скоба назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скоба вперед наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скоба вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скоба назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скоба назад внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">перебежка (беговой) вперед по часовой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">progressive</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">перебежка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(беговой)</t>
     </r>
     <r>
       <rPr>
@@ -528,10 +685,20 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> вперед внутрь на правой</t>
+      <t xml:space="preserve"> вперед против часовой</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">перебежка </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -539,7 +706,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">скоба</t>
+      <t xml:space="preserve">(беговой)</t>
     </r>
     <r>
       <rPr>
@@ -549,10 +716,20 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> назад наружу на правой</t>
+      <t xml:space="preserve"> назад по часовой</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">перебежка </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -560,7 +737,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">скоба</t>
+      <t xml:space="preserve">(беговой)</t>
     </r>
     <r>
       <rPr>
@@ -570,19 +747,16 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> назад внутрь на правой</t>
+      <t xml:space="preserve"> назад против часовой</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">скоба</t>
-    </r>
+    <t xml:space="preserve">обманный шаг влево через тройку вперед наружу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в данной редакции шаг заканчивается подсечкой и дугой назад внутрь</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -591,10 +765,8 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> вперед наружу на левой</t>
+      <t xml:space="preserve">обманный шаг вправо</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -602,8 +774,13 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">скоба</t>
+      <t xml:space="preserve"> через тройку вперед наружу</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">обманный шаг влево через моухок</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -612,10 +789,8 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> вперед внутрь на левой</t>
+      <t xml:space="preserve">обманный шаг вправо</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -623,38 +798,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">скоба</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад наружу на левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">скоба</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад внутрь на левой</t>
+      <t xml:space="preserve"> через моухок</t>
     </r>
   </si>
 </sst>
@@ -662,10 +806,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -713,14 +858,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="11.5"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -731,6 +875,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -961,12 +1112,8 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1014,42 +1161,46 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1057,23 +1208,27 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1085,16 +1240,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1180,9 +1331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>435600</xdr:colOff>
+      <xdr:colOff>435240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>328320</xdr:rowOff>
+      <xdr:rowOff>327960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1195,8 +1346,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="40418280" y="1493280"/>
-          <a:ext cx="8528760" cy="7140240"/>
+          <a:off x="41193360" y="1493280"/>
+          <a:ext cx="8528760" cy="7139880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1216,14 +1367,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P990"/>
+  <dimension ref="A1:P998"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="A97" activeCellId="0" sqref="A97"/>
+      <selection pane="bottomLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
+      <selection pane="bottomRight" activeCell="L155" activeCellId="0" sqref="L155:L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1233,73 +1384,77 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="15.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="6" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="15.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="5" width="12.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="23" t="n">
         <v>0</v>
@@ -1310,25 +1465,27 @@
       <c r="H2" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="26"/>
+      <c r="N2" s="26" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O2" s="27"/>
       <c r="P2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="23" t="n">
         <v>180</v>
@@ -1339,22 +1496,25 @@
       <c r="H3" s="25" t="n">
         <v>1</v>
       </c>
+      <c r="N3" s="26" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="23" t="n">
         <v>0</v>
@@ -1371,19 +1531,19 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="23" t="n">
         <v>0</v>
@@ -1400,19 +1560,19 @@
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="23" t="n">
         <v>180</v>
@@ -1429,19 +1589,19 @@
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="23" t="n">
         <v>180</v>
@@ -1458,19 +1618,19 @@
     </row>
     <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="23" t="n">
         <v>180</v>
@@ -1487,19 +1647,19 @@
     </row>
     <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="23" t="n">
         <v>180</v>
@@ -1516,77 +1676,77 @@
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="24" t="n">
-        <v>-360</v>
+        <v>-540</v>
       </c>
       <c r="H10" s="25" t="n">
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="24" t="n">
-        <v>360</v>
+      <c r="G11" s="31" t="n">
+        <v>540</v>
       </c>
       <c r="H11" s="25" t="n">
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="23" t="n">
         <v>0</v>
@@ -1594,25 +1754,25 @@
       <c r="G12" s="24" t="n">
         <v>-360</v>
       </c>
-      <c r="H12" s="31" t="n">
+      <c r="H12" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="23" t="n">
         <v>180</v>
@@ -1620,25 +1780,25 @@
       <c r="G13" s="24" t="n">
         <v>360</v>
       </c>
-      <c r="H13" s="31" t="n">
+      <c r="H13" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="23" t="n">
         <v>0</v>
@@ -1646,25 +1806,25 @@
       <c r="G14" s="24" t="n">
         <v>360</v>
       </c>
-      <c r="H14" s="31" t="n">
+      <c r="H14" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="23" t="n">
         <v>180</v>
@@ -1672,25 +1832,25 @@
       <c r="G15" s="24" t="n">
         <v>-360</v>
       </c>
-      <c r="H15" s="31" t="n">
+      <c r="H15" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="23" t="n">
         <v>180</v>
@@ -1698,25 +1858,25 @@
       <c r="G16" s="24" t="n">
         <v>-360</v>
       </c>
-      <c r="H16" s="31" t="n">
+      <c r="H16" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="23" t="n">
         <v>0</v>
@@ -1724,25 +1884,25 @@
       <c r="G17" s="24" t="n">
         <v>360</v>
       </c>
-      <c r="H17" s="31" t="n">
+      <c r="H17" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="23" t="n">
         <v>180</v>
@@ -1750,25 +1910,25 @@
       <c r="G18" s="24" t="n">
         <v>360</v>
       </c>
-      <c r="H18" s="31" t="n">
+      <c r="H18" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="23" t="n">
         <v>0</v>
@@ -1776,25 +1936,25 @@
       <c r="G19" s="24" t="n">
         <v>-360</v>
       </c>
-      <c r="H19" s="31" t="n">
+      <c r="H19" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="23" t="n">
         <v>0</v>
@@ -1806,24 +1966,24 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>38</v>
-      </c>
       <c r="E21" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="23" t="n">
         <v>0</v>
@@ -1835,24 +1995,24 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="23" t="n">
         <v>0</v>
@@ -1866,19 +2026,19 @@
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="23" t="n">
         <v>0</v>
@@ -1892,19 +2052,19 @@
     </row>
     <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="23" t="n">
         <v>0</v>
@@ -1918,19 +2078,19 @@
     </row>
     <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="23" t="n">
         <v>0</v>
@@ -1944,19 +2104,19 @@
     </row>
     <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="23" t="n">
         <v>180</v>
@@ -1970,19 +2130,19 @@
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" s="23" t="n">
         <v>180</v>
@@ -1996,19 +2156,19 @@
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" s="23" t="n">
         <v>180</v>
@@ -2022,19 +2182,19 @@
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="23" t="n">
         <v>180</v>
@@ -2048,19 +2208,19 @@
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" s="23" t="n">
         <v>0</v>
@@ -2074,19 +2234,19 @@
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" s="23" t="n">
         <v>0</v>
@@ -2100,19 +2260,19 @@
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F32" s="23" t="n">
         <v>180</v>
@@ -2126,19 +2286,19 @@
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F33" s="23" t="n">
         <v>180</v>
@@ -2150,21 +2310,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="D34" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="23" t="n">
         <v>0</v>
@@ -2179,21 +2339,21 @@
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
     </row>
-    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" s="23" t="n">
         <v>0</v>
@@ -2208,21 +2368,21 @@
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
     </row>
-    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="D36" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" s="23" t="n">
         <v>180</v>
@@ -2237,21 +2397,21 @@
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
     </row>
-    <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" s="23" t="n">
         <v>180</v>
@@ -2268,19 +2428,19 @@
     </row>
     <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F38" s="23" t="n">
         <v>0</v>
@@ -2292,53 +2452,59 @@
         <v>0</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="N38" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>57</v>
+      <c r="N39" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="32" t="s">
-        <v>59</v>
+      <c r="A40" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F40" s="23" t="n">
         <v>0</v>
@@ -2350,24 +2516,27 @@
         <v>0</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="N40" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41" s="23" t="n">
         <v>0</v>
@@ -2379,24 +2548,27 @@
         <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="N41" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" s="23" t="n">
         <v>0</v>
@@ -2408,24 +2580,27 @@
         <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="N42" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" s="23" t="n">
         <v>0</v>
@@ -2437,24 +2612,27 @@
         <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="N43" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" s="23" t="n">
         <v>0</v>
@@ -2466,24 +2644,27 @@
         <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="N44" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F45" s="23" t="n">
         <v>0</v>
@@ -2495,24 +2676,27 @@
         <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="N45" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F46" s="23" t="n">
         <v>0</v>
@@ -2520,28 +2704,34 @@
       <c r="G46" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="H46" s="25" t="n">
-        <v>1</v>
+      <c r="H46" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N46" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F47" s="23" t="n">
         <v>0</v>
@@ -2549,584 +2739,650 @@
       <c r="G47" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="H47" s="25" t="n">
-        <v>1</v>
+      <c r="H47" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N47" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F48" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G48" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="H48" s="25" t="n">
+      <c r="H48" s="24" t="n">
         <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N48" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F49" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G49" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="H49" s="25" t="n">
+      <c r="H49" s="24" t="n">
         <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N49" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="D50" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F50" s="23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G50" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="H50" s="25" t="n">
+      <c r="H50" s="24" t="n">
         <v>0</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N50" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>18</v>
+        <v>72</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F51" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N51" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="23" t="n">
         <v>180</v>
       </c>
-      <c r="G51" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="19" t="s">
+      <c r="G52" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N52" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="24" t="n">
-        <v>-360</v>
-      </c>
-      <c r="H52" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="D53" s="21" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G53" s="24" t="n">
-        <v>360</v>
-      </c>
-      <c r="H53" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H53" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N53" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F54" s="23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G54" s="24" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="H54" s="25" t="n">
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F55" s="23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G55" s="24" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H55" s="25" t="n">
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F56" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="24" t="n">
-        <v>-360</v>
+        <v>0</v>
       </c>
       <c r="H56" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="C58" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="24" t="n">
-        <v>360</v>
-      </c>
-      <c r="H57" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="D58" s="21" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F58" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G58" s="24" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="H58" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F59" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G59" s="24" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H59" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F60" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G60" s="24" t="n">
-        <v>0</v>
+        <v>-360</v>
       </c>
       <c r="H60" s="25" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J60" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="24" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H61" s="25" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F62" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G62" s="24" t="n">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="H62" s="25" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F63" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G63" s="24" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H63" s="25" t="n">
         <v>1</v>
       </c>
+      <c r="J63" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F64" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G64" s="24" t="n">
-        <v>0</v>
+        <v>-360</v>
       </c>
       <c r="H64" s="25" t="n">
         <v>1</v>
       </c>
+      <c r="J64" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F65" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G65" s="24" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H65" s="25" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J65" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F66" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G66" s="24" t="n">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="H66" s="25" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F67" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G67" s="24" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H67" s="25" t="n">
         <v>1</v>
       </c>
+      <c r="J67" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F68" s="23" t="n">
         <v>0</v>
@@ -3137,25 +3393,22 @@
       <c r="H68" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
     </row>
     <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F69" s="23" t="n">
         <v>0</v>
@@ -3169,141 +3422,129 @@
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F70" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G70" s="24" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H70" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F71" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G71" s="24" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="H71" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F72" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G72" s="24" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H72" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F73" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G73" s="24" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="H73" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" s="33" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F74" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G74" s="24" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H74" s="25" t="n">
         <v>1</v>
@@ -3311,25 +3552,25 @@
     </row>
     <row r="75" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F75" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G75" s="24" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="H75" s="25" t="n">
         <v>1</v>
@@ -3337,22 +3578,22 @@
     </row>
     <row r="76" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="D76" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F76" s="23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G76" s="24" t="n">
         <v>0</v>
@@ -3360,25 +3601,28 @@
       <c r="H76" s="25" t="n">
         <v>1</v>
       </c>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
     </row>
     <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F77" s="23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G77" s="24" t="n">
         <v>0</v>
@@ -3389,356 +3633,343 @@
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="D78" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F78" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="24" t="n">
         <v>180</v>
       </c>
-      <c r="G78" s="24" t="n">
-        <v>0</v>
-      </c>
       <c r="H78" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F79" s="23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G79" s="24" t="n">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="H79" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="24" t="n">
+        <v>180</v>
+      </c>
+      <c r="H80" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" s="23" t="n">
-        <v>180</v>
-      </c>
-      <c r="G80" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" s="25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F81" s="23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G81" s="24" t="n">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="H81" s="25" t="n">
         <v>0</v>
+      </c>
+      <c r="J81" s="34" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F82" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G82" s="24" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="H82" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F83" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G83" s="24" t="n">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="H83" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F84" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G84" s="24" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H84" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F85" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G85" s="24" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="H85" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F86" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G86" s="24" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H86" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F87" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G87" s="24" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="H87" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F88" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G88" s="24" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="H88" s="25" t="n">
         <v>0</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F89" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G89" s="24" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H89" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M89" s="34"/>
-    </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F90" s="23" t="n">
         <v>0</v>
@@ -3749,31 +3980,25 @@
       <c r="H90" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="I90" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="J90" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M90" s="35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F91" s="23" t="n">
         <v>0</v>
@@ -3784,31 +4009,25 @@
       <c r="H91" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="J91" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M91" s="35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F92" s="23" t="n">
         <v>180</v>
@@ -3819,31 +4038,25 @@
       <c r="H92" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="I92" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="J92" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M92" s="35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F93" s="23" t="n">
         <v>180</v>
@@ -3854,31 +4067,25 @@
       <c r="H93" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="I93" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M93" s="35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F94" s="23" t="n">
         <v>0</v>
@@ -3889,31 +4096,25 @@
       <c r="H94" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M94" s="35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F95" s="23" t="n">
         <v>0</v>
@@ -3924,31 +4125,25 @@
       <c r="H95" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="I95" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="J95" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M95" s="35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F96" s="23" t="n">
         <v>180</v>
@@ -3959,31 +4154,25 @@
       <c r="H96" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="I96" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="J96" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M96" s="35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F97" s="23" t="n">
         <v>180</v>
@@ -3994,37 +4183,32 @@
       <c r="H97" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="I97" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="J97" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M97" s="35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="M97" s="35"/>
+    </row>
+    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F98" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G98" s="24" t="n">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="H98" s="25" t="n">
         <v>0</v>
@@ -4033,33 +4217,36 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M98" s="35" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="M98" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N98" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F99" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G99" s="24" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="H99" s="25" t="n">
         <v>0</v>
@@ -4068,33 +4255,36 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M99" s="35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="M99" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N99" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F100" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G100" s="24" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="H100" s="25" t="n">
         <v>0</v>
@@ -4103,33 +4293,36 @@
         <v>1</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M100" s="35" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="M100" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N100" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F101" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G101" s="24" t="n">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="H101" s="25" t="n">
         <v>0</v>
@@ -4138,33 +4331,36 @@
         <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M101" s="35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="M101" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N101" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F102" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G102" s="24" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="H102" s="25" t="n">
         <v>0</v>
@@ -4173,33 +4369,36 @@
         <v>1</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M102" s="35" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="M102" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N102" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F103" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G103" s="24" t="n">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="H103" s="25" t="n">
         <v>0</v>
@@ -4208,33 +4407,36 @@
         <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M103" s="35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="M103" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N103" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F104" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G104" s="24" t="n">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="H104" s="25" t="n">
         <v>0</v>
@@ -4243,33 +4445,36 @@
         <v>1</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M104" s="35" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="M104" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N104" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F105" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G105" s="24" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="H105" s="25" t="n">
         <v>0</v>
@@ -4278,33 +4483,36 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M105" s="35" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="M105" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N105" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F106" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G106" s="24" t="n">
-        <v>-360</v>
+        <v>180</v>
       </c>
       <c r="H106" s="25" t="n">
         <v>0</v>
@@ -4313,33 +4521,36 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M106" s="35" t="s">
-        <v>130</v>
+        <v>113</v>
+      </c>
+      <c r="M106" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N106" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F107" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G107" s="24" t="n">
-        <v>360</v>
+        <v>-180</v>
       </c>
       <c r="H107" s="25" t="n">
         <v>0</v>
@@ -4348,33 +4559,36 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M107" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="M107" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N107" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F108" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G108" s="24" t="n">
-        <v>360</v>
+        <v>-180</v>
       </c>
       <c r="H108" s="25" t="n">
         <v>0</v>
@@ -4383,33 +4597,36 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M108" s="35" t="s">
-        <v>130</v>
+        <v>113</v>
+      </c>
+      <c r="M108" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N108" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F109" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G109" s="24" t="n">
-        <v>-360</v>
+        <v>180</v>
       </c>
       <c r="H109" s="25" t="n">
         <v>0</v>
@@ -4418,33 +4635,36 @@
         <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M109" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="M109" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N109" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F110" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G110" s="24" t="n">
-        <v>360</v>
+        <v>-180</v>
       </c>
       <c r="H110" s="25" t="n">
         <v>0</v>
@@ -4453,33 +4673,36 @@
         <v>1</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M110" s="35" t="s">
-        <v>130</v>
+        <v>113</v>
+      </c>
+      <c r="M110" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N110" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F111" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G111" s="24" t="n">
-        <v>-360</v>
+        <v>180</v>
       </c>
       <c r="H111" s="25" t="n">
         <v>0</v>
@@ -4488,33 +4711,36 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M111" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="M111" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N111" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F112" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G112" s="24" t="n">
-        <v>-360</v>
+        <v>180</v>
       </c>
       <c r="H112" s="25" t="n">
         <v>0</v>
@@ -4523,33 +4749,36 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M112" s="35" t="s">
-        <v>130</v>
+        <v>113</v>
+      </c>
+      <c r="M112" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N112" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F113" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G113" s="24" t="n">
-        <v>360</v>
+        <v>-180</v>
       </c>
       <c r="H113" s="25" t="n">
         <v>0</v>
@@ -4558,33 +4787,36 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M113" s="35" t="s">
-        <v>130</v>
+        <v>113</v>
+      </c>
+      <c r="M113" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N113" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F114" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G114" s="24" t="n">
-        <v>-1080</v>
+        <v>-360</v>
       </c>
       <c r="H114" s="25" t="n">
         <v>0</v>
@@ -4593,33 +4825,33 @@
         <v>1</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M114" s="35" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="M114" s="36" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F115" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G115" s="24" t="n">
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="H115" s="25" t="n">
         <v>0</v>
@@ -4628,33 +4860,33 @@
         <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M115" s="35" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="M115" s="36" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F116" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G116" s="24" t="n">
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="H116" s="25" t="n">
         <v>0</v>
@@ -4663,33 +4895,33 @@
         <v>1</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M116" s="35" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="M116" s="36" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F117" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G117" s="24" t="n">
-        <v>-1080</v>
+        <v>-360</v>
       </c>
       <c r="H117" s="25" t="n">
         <v>0</v>
@@ -4698,33 +4930,33 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M117" s="35" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="M117" s="36" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F118" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G118" s="24" t="n">
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="H118" s="25" t="n">
         <v>0</v>
@@ -4733,33 +4965,33 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M118" s="35" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="M118" s="36" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F119" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G119" s="24" t="n">
-        <v>-1080</v>
+        <v>-360</v>
       </c>
       <c r="H119" s="25" t="n">
         <v>0</v>
@@ -4768,33 +5000,33 @@
         <v>1</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M119" s="35" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="M119" s="36" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F120" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G120" s="24" t="n">
-        <v>-1080</v>
+        <v>-360</v>
       </c>
       <c r="H120" s="25" t="n">
         <v>0</v>
@@ -4803,33 +5035,33 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M120" s="35" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="M120" s="36" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F121" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G121" s="24" t="n">
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="H121" s="25" t="n">
         <v>0</v>
@@ -4838,149 +5070,185 @@
         <v>1</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M121" s="35" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="M121" s="36" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F122" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G122" s="24" t="n">
-        <v>180</v>
+        <v>-1080</v>
       </c>
       <c r="H122" s="25" t="n">
         <v>0</v>
       </c>
+      <c r="I122" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="J122" s="3" t="s">
-        <v>90</v>
+        <v>113</v>
+      </c>
+      <c r="M122" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N122" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D123" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" s="24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="H123" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M123" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N123" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E123" s="22" t="s">
+      <c r="C124" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F123" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" s="24" t="n">
+      <c r="D124" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" s="23" t="n">
         <v>180</v>
       </c>
-      <c r="H123" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="18" t="s">
+      <c r="G124" s="24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="H124" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M124" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" s="24" t="n">
-        <v>-180</v>
-      </c>
-      <c r="H124" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>90</v>
+      <c r="N124" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F125" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G125" s="24" t="n">
-        <v>-180</v>
+        <v>-1080</v>
       </c>
       <c r="H125" s="25" t="n">
         <v>0</v>
       </c>
+      <c r="I125" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="J125" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="M125" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N125" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F126" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G126" s="24" t="n">
-        <v>180</v>
+        <v>1080</v>
       </c>
       <c r="H126" s="25" t="n">
         <v>0</v>
@@ -4989,33 +5257,36 @@
         <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M126" s="35" t="s">
-        <v>152</v>
+        <v>113</v>
+      </c>
+      <c r="M126" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N126" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F127" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G127" s="24" t="n">
-        <v>180</v>
+        <v>-1080</v>
       </c>
       <c r="H127" s="25" t="n">
         <v>0</v>
@@ -5024,33 +5295,36 @@
         <v>1</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M127" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="M127" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N127" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F128" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G128" s="24" t="n">
-        <v>180</v>
+        <v>-1080</v>
       </c>
       <c r="H128" s="25" t="n">
         <v>0</v>
@@ -5059,33 +5333,36 @@
         <v>1</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M128" s="35" t="s">
-        <v>152</v>
+        <v>113</v>
+      </c>
+      <c r="M128" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N128" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F129" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G129" s="24" t="n">
-        <v>-180</v>
+        <v>1080</v>
       </c>
       <c r="H129" s="25" t="n">
         <v>0</v>
@@ -5094,115 +5371,112 @@
         <v>1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M129" s="35" t="s">
-        <v>152</v>
+        <v>113</v>
+      </c>
+      <c r="M129" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N129" s="5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F130" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G130" s="24" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="H130" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="I130" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="J130" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M130" s="35" t="s">
-        <v>152</v>
+        <v>100</v>
+      </c>
+      <c r="N130" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" s="24" t="n">
+        <v>180</v>
+      </c>
+      <c r="H131" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N131" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E131" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" s="23" t="n">
-        <v>180</v>
-      </c>
-      <c r="G131" s="24" t="n">
+      <c r="D132" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" s="24" t="n">
         <v>-180</v>
       </c>
-      <c r="H131" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M131" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E132" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" s="24" t="n">
-        <v>180</v>
-      </c>
       <c r="H132" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K132" s="36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="N132" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="18" t="s">
         <v>160</v>
       </c>
@@ -5210,13 +5484,13 @@
         <v>19</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F133" s="23" t="n">
         <v>0</v>
@@ -5225,13 +5499,13 @@
         <v>-180</v>
       </c>
       <c r="H133" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K133" s="36" t="n">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="N133" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5239,16 +5513,16 @@
         <v>161</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F134" s="23" t="n">
         <v>0</v>
@@ -5263,33 +5537,36 @@
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M134" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="M134" s="36" t="s">
         <v>162</v>
       </c>
+      <c r="N134" s="5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="18" t="s">
         <v>163</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F135" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G135" s="24" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="H135" s="25" t="n">
         <v>0</v>
@@ -5298,33 +5575,36 @@
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M135" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="M135" s="36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="37" t="s">
+      <c r="N135" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="18" t="s">
         <v>164</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F136" s="23" t="n">
         <v>180</v>
       </c>
       <c r="G136" s="24" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="H136" s="25" t="n">
         <v>0</v>
@@ -5333,33 +5613,36 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M136" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="M136" s="36" t="s">
         <v>162</v>
       </c>
+      <c r="N136" s="5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="37" t="s">
+      <c r="A137" s="18" t="s">
         <v>165</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="F137" s="23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G137" s="24" t="n">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="H137" s="25" t="n">
         <v>0</v>
@@ -5368,27 +5651,30 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M137" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="M137" s="36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="37" t="s">
+      <c r="N137" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="18" t="s">
         <v>166</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E138" s="21" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F138" s="23" t="n">
         <v>0</v>
@@ -5403,33 +5689,36 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M138" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="M138" s="36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="37" t="s">
+      <c r="N138" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="18" t="s">
         <v>167</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F139" s="23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G139" s="24" t="n">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="H139" s="25" t="n">
         <v>0</v>
@@ -5438,241 +5727,608 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M139" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="M139" s="36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="37" t="s">
+      <c r="N139" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="18" t="s">
         <v>168</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="F140" s="23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G140" s="24" t="n">
         <v>180</v>
       </c>
       <c r="H140" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M140" s="35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="37" t="s">
         <v>169</v>
       </c>
+      <c r="K140" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="B141" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E141" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="F141" s="23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G141" s="24" t="n">
         <v>-180</v>
       </c>
       <c r="H141" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M141" s="35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="18"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="22"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="25"/>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="18"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="22"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="25"/>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="18"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="23"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="25"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="18"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="21"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="23"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="25"/>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="18"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="24"/>
-      <c r="H146" s="25"/>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="18"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="22"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="25"/>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="18"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="25"/>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="18"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="25"/>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="18"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="23"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="25"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="18"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="20"/>
-      <c r="D151" s="21"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="23"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="25"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="18"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="21"/>
-      <c r="E152" s="22"/>
-      <c r="F152" s="23"/>
-      <c r="G152" s="24"/>
-      <c r="H152" s="25"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="18"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="23"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="25"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="18"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="22"/>
+        <v>169</v>
+      </c>
+      <c r="K141" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" s="24" t="n">
+        <v>180</v>
+      </c>
+      <c r="H142" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M142" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N142" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="24" t="n">
+        <v>-180</v>
+      </c>
+      <c r="H143" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M143" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N143" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="23" t="n">
+        <v>180</v>
+      </c>
+      <c r="G144" s="24" t="n">
+        <v>-180</v>
+      </c>
+      <c r="H144" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M144" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N144" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" s="23" t="n">
+        <v>180</v>
+      </c>
+      <c r="G145" s="24" t="n">
+        <v>180</v>
+      </c>
+      <c r="H145" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M145" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N145" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" s="24" t="n">
+        <v>-180</v>
+      </c>
+      <c r="H146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M146" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N146" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" s="24" t="n">
+        <v>180</v>
+      </c>
+      <c r="H147" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M147" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N147" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" s="23" t="n">
+        <v>180</v>
+      </c>
+      <c r="G148" s="24" t="n">
+        <v>180</v>
+      </c>
+      <c r="H148" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M148" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N148" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149" s="23" t="n">
+        <v>180</v>
+      </c>
+      <c r="G149" s="24" t="n">
+        <v>-180</v>
+      </c>
+      <c r="H149" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M149" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N149" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M151" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" s="23" t="n">
+        <v>180</v>
+      </c>
+      <c r="G152" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M152" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" s="23" t="n">
+        <v>180</v>
+      </c>
+      <c r="G153" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M153" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="F154" s="23"/>
       <c r="G154" s="24"/>
       <c r="H154" s="25"/>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="18"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="22"/>
+      <c r="L154" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="F155" s="23"/>
       <c r="G155" s="24"/>
       <c r="H155" s="25"/>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="18"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="22"/>
+      <c r="L155" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="F156" s="23"/>
       <c r="G156" s="24"/>
       <c r="H156" s="25"/>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="18"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="22"/>
+      <c r="L156" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="F157" s="23"/>
       <c r="G157" s="24"/>
       <c r="H157" s="25"/>
+      <c r="L157" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="18"/>
@@ -14004,13 +14660,93 @@
       <c r="G990" s="24"/>
       <c r="H990" s="25"/>
     </row>
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="18"/>
+      <c r="B991" s="19"/>
+      <c r="C991" s="20"/>
+      <c r="D991" s="21"/>
+      <c r="E991" s="22"/>
+      <c r="F991" s="23"/>
+      <c r="G991" s="24"/>
+      <c r="H991" s="25"/>
+    </row>
+    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="18"/>
+      <c r="B992" s="19"/>
+      <c r="C992" s="20"/>
+      <c r="D992" s="21"/>
+      <c r="E992" s="22"/>
+      <c r="F992" s="23"/>
+      <c r="G992" s="24"/>
+      <c r="H992" s="25"/>
+    </row>
+    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="18"/>
+      <c r="B993" s="19"/>
+      <c r="C993" s="20"/>
+      <c r="D993" s="21"/>
+      <c r="E993" s="22"/>
+      <c r="F993" s="23"/>
+      <c r="G993" s="24"/>
+      <c r="H993" s="25"/>
+    </row>
+    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="18"/>
+      <c r="B994" s="19"/>
+      <c r="C994" s="20"/>
+      <c r="D994" s="21"/>
+      <c r="E994" s="22"/>
+      <c r="F994" s="23"/>
+      <c r="G994" s="24"/>
+      <c r="H994" s="25"/>
+    </row>
+    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="18"/>
+      <c r="B995" s="19"/>
+      <c r="C995" s="20"/>
+      <c r="D995" s="21"/>
+      <c r="E995" s="22"/>
+      <c r="F995" s="23"/>
+      <c r="G995" s="24"/>
+      <c r="H995" s="25"/>
+    </row>
+    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="18"/>
+      <c r="B996" s="19"/>
+      <c r="C996" s="20"/>
+      <c r="D996" s="21"/>
+      <c r="E996" s="22"/>
+      <c r="F996" s="23"/>
+      <c r="G996" s="24"/>
+      <c r="H996" s="25"/>
+    </row>
+    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="18"/>
+      <c r="B997" s="19"/>
+      <c r="C997" s="20"/>
+      <c r="D997" s="21"/>
+      <c r="E997" s="22"/>
+      <c r="F997" s="23"/>
+      <c r="G997" s="24"/>
+      <c r="H997" s="25"/>
+    </row>
+    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="18"/>
+      <c r="B998" s="19"/>
+      <c r="C998" s="20"/>
+      <c r="D998" s="21"/>
+      <c r="E998" s="22"/>
+      <c r="F998" s="23"/>
+      <c r="G998" s="24"/>
+      <c r="H998" s="25"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2:J141" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2:J153" type="list">
       <formula1>"step,turn,sequence,hop,glide,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D17:D136 E135 D137:E141 D142:D1141" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D17:D144 E143 D145:E157 D158:D1149" type="list">
       <formula1>"внутреннее,наружное,два ребра"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -1370,11 +1370,11 @@
   <dimension ref="A1:P998"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E146" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
-      <selection pane="bottomRight" activeCell="L155" activeCellId="0" sqref="L155:L157"/>
+      <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
+      <selection pane="bottomRight" activeCell="H154" activeCellId="0" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -229,112 +229,22 @@
     <t xml:space="preserve">Ласточка вперед внутрь на правой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ласточка назад наружу </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">на правой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ласточка назад внутрь </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">на правой</t>
-    </r>
+    <t xml:space="preserve">Ласточка назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ласточка назад внутрь на правой</t>
   </si>
   <si>
     <t xml:space="preserve">Ласточка вперед наружу на левой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ласточка вперед внутрь на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ласточка назад наружу </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">на левой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ласточка назад внутрь </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">на левой</t>
-    </r>
+    <t xml:space="preserve">Ласточка вперед внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ласточка назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ласточка назад внутрь на левой</t>
   </si>
   <si>
     <t xml:space="preserve">Боковая подпрыжка правым боком</t>
@@ -658,97 +568,13 @@
     <t xml:space="preserve">progressive</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">перебежка </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(беговой)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> вперед против часовой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">перебежка </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(беговой)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад по часовой</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">перебежка </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(беговой)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> назад против часовой</t>
-    </r>
+    <t xml:space="preserve">перебежка (беговой) вперед против часовой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">перебежка (беговой) назад по часовой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">перебежка (беговой) назад против часовой</t>
   </si>
   <si>
     <t xml:space="preserve">обманный шаг влево через тройку вперед наружу</t>
@@ -757,49 +583,13 @@
     <t xml:space="preserve">в данной редакции шаг заканчивается подсечкой и дугой назад внутрь</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">обманный шаг вправо</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> через тройку вперед наружу</t>
-    </r>
+    <t xml:space="preserve">обманный шаг вправо через тройку вперед наружу</t>
   </si>
   <si>
     <t xml:space="preserve">обманный шаг влево через моухок</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">обманный шаг вправо</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> через моухок</t>
-    </r>
+    <t xml:space="preserve">обманный шаг вправо через моухок</t>
   </si>
 </sst>
 </file>
@@ -810,7 +600,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -858,23 +648,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11.5"/>
@@ -1095,7 +873,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1164,43 +942,43 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1208,27 +986,23 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1240,7 +1014,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1331,9 +1105,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>435240</xdr:colOff>
+      <xdr:colOff>434880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>327960</xdr:rowOff>
+      <xdr:rowOff>327600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1347,7 +1121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="41193360" y="1493280"/>
-          <a:ext cx="8528760" cy="7139880"/>
+          <a:ext cx="8528400" cy="7139520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,11 +1144,11 @@
   <dimension ref="A1:P998"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
-      <selection pane="bottomRight" activeCell="H154" activeCellId="0" sqref="H154"/>
+      <selection pane="bottomRight" activeCell="H154" activeCellId="0" sqref="H154:H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1722,7 +1496,7 @@
       <c r="F11" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="31" t="n">
+      <c r="G11" s="24" t="n">
         <v>540</v>
       </c>
       <c r="H11" s="25" t="n">
@@ -1754,7 +1528,7 @@
       <c r="G12" s="24" t="n">
         <v>-360</v>
       </c>
-      <c r="H12" s="32" t="n">
+      <c r="H12" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1780,7 +1554,7 @@
       <c r="G13" s="24" t="n">
         <v>360</v>
       </c>
-      <c r="H13" s="32" t="n">
+      <c r="H13" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1806,7 +1580,7 @@
       <c r="G14" s="24" t="n">
         <v>360</v>
       </c>
-      <c r="H14" s="32" t="n">
+      <c r="H14" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1832,7 +1606,7 @@
       <c r="G15" s="24" t="n">
         <v>-360</v>
       </c>
-      <c r="H15" s="32" t="n">
+      <c r="H15" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1858,7 +1632,7 @@
       <c r="G16" s="24" t="n">
         <v>-360</v>
       </c>
-      <c r="H16" s="32" t="n">
+      <c r="H16" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1884,7 +1658,7 @@
       <c r="G17" s="24" t="n">
         <v>360</v>
       </c>
-      <c r="H17" s="32" t="n">
+      <c r="H17" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1910,7 +1684,7 @@
       <c r="G18" s="24" t="n">
         <v>360</v>
       </c>
-      <c r="H18" s="32" t="n">
+      <c r="H18" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1936,7 +1710,7 @@
       <c r="G19" s="24" t="n">
         <v>-360</v>
       </c>
-      <c r="H19" s="32" t="n">
+      <c r="H19" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,7 +2265,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -3743,7 +3517,7 @@
       <c r="H81" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="J81" s="34" t="s">
+      <c r="J81" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4186,7 +3960,7 @@
       <c r="J97" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M97" s="35"/>
+      <c r="M97" s="34"/>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="18" t="s">
@@ -4219,7 +3993,7 @@
       <c r="J98" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M98" s="36" t="s">
+      <c r="M98" s="35" t="s">
         <v>122</v>
       </c>
       <c r="N98" s="5" t="n">
@@ -4257,7 +4031,7 @@
       <c r="J99" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M99" s="36" t="s">
+      <c r="M99" s="35" t="s">
         <v>122</v>
       </c>
       <c r="N99" s="5" t="n">
@@ -4295,7 +4069,7 @@
       <c r="J100" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M100" s="36" t="s">
+      <c r="M100" s="35" t="s">
         <v>122</v>
       </c>
       <c r="N100" s="5" t="n">
@@ -4333,7 +4107,7 @@
       <c r="J101" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M101" s="36" t="s">
+      <c r="M101" s="35" t="s">
         <v>122</v>
       </c>
       <c r="N101" s="5" t="n">
@@ -4371,7 +4145,7 @@
       <c r="J102" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M102" s="36" t="s">
+      <c r="M102" s="35" t="s">
         <v>122</v>
       </c>
       <c r="N102" s="5" t="n">
@@ -4409,7 +4183,7 @@
       <c r="J103" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M103" s="36" t="s">
+      <c r="M103" s="35" t="s">
         <v>122</v>
       </c>
       <c r="N103" s="5" t="n">
@@ -4447,7 +4221,7 @@
       <c r="J104" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M104" s="36" t="s">
+      <c r="M104" s="35" t="s">
         <v>122</v>
       </c>
       <c r="N104" s="5" t="n">
@@ -4485,7 +4259,7 @@
       <c r="J105" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M105" s="36" t="s">
+      <c r="M105" s="35" t="s">
         <v>122</v>
       </c>
       <c r="N105" s="5" t="n">
@@ -4523,7 +4297,7 @@
       <c r="J106" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M106" s="36" t="s">
+      <c r="M106" s="35" t="s">
         <v>131</v>
       </c>
       <c r="N106" s="5" t="n">
@@ -4561,7 +4335,7 @@
       <c r="J107" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M107" s="36" t="s">
+      <c r="M107" s="35" t="s">
         <v>131</v>
       </c>
       <c r="N107" s="5" t="n">
@@ -4599,7 +4373,7 @@
       <c r="J108" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M108" s="36" t="s">
+      <c r="M108" s="35" t="s">
         <v>131</v>
       </c>
       <c r="N108" s="5" t="n">
@@ -4637,7 +4411,7 @@
       <c r="J109" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M109" s="36" t="s">
+      <c r="M109" s="35" t="s">
         <v>131</v>
       </c>
       <c r="N109" s="5" t="n">
@@ -4675,7 +4449,7 @@
       <c r="J110" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M110" s="36" t="s">
+      <c r="M110" s="35" t="s">
         <v>131</v>
       </c>
       <c r="N110" s="5" t="n">
@@ -4713,7 +4487,7 @@
       <c r="J111" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M111" s="36" t="s">
+      <c r="M111" s="35" t="s">
         <v>131</v>
       </c>
       <c r="N111" s="5" t="n">
@@ -4751,7 +4525,7 @@
       <c r="J112" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M112" s="36" t="s">
+      <c r="M112" s="35" t="s">
         <v>131</v>
       </c>
       <c r="N112" s="5" t="n">
@@ -4789,7 +4563,7 @@
       <c r="J113" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M113" s="36" t="s">
+      <c r="M113" s="35" t="s">
         <v>131</v>
       </c>
       <c r="N113" s="5" t="n">
@@ -4827,7 +4601,7 @@
       <c r="J114" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M114" s="36" t="s">
+      <c r="M114" s="35" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4862,7 +4636,7 @@
       <c r="J115" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M115" s="36" t="s">
+      <c r="M115" s="35" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4897,7 +4671,7 @@
       <c r="J116" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M116" s="36" t="s">
+      <c r="M116" s="35" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4932,7 +4706,7 @@
       <c r="J117" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M117" s="36" t="s">
+      <c r="M117" s="35" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4967,7 +4741,7 @@
       <c r="J118" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M118" s="36" t="s">
+      <c r="M118" s="35" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5002,7 +4776,7 @@
       <c r="J119" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M119" s="36" t="s">
+      <c r="M119" s="35" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5037,7 +4811,7 @@
       <c r="J120" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M120" s="36" t="s">
+      <c r="M120" s="35" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5072,7 +4846,7 @@
       <c r="J121" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M121" s="36" t="s">
+      <c r="M121" s="35" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5107,7 +4881,7 @@
       <c r="J122" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M122" s="36" t="s">
+      <c r="M122" s="35" t="s">
         <v>149</v>
       </c>
       <c r="N122" s="5" t="n">
@@ -5145,7 +4919,7 @@
       <c r="J123" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M123" s="36" t="s">
+      <c r="M123" s="35" t="s">
         <v>149</v>
       </c>
       <c r="N123" s="5" t="n">
@@ -5183,7 +4957,7 @@
       <c r="J124" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M124" s="36" t="s">
+      <c r="M124" s="35" t="s">
         <v>149</v>
       </c>
       <c r="N124" s="5" t="n">
@@ -5221,7 +4995,7 @@
       <c r="J125" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M125" s="36" t="s">
+      <c r="M125" s="35" t="s">
         <v>149</v>
       </c>
       <c r="N125" s="5" t="n">
@@ -5259,7 +5033,7 @@
       <c r="J126" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M126" s="36" t="s">
+      <c r="M126" s="35" t="s">
         <v>149</v>
       </c>
       <c r="N126" s="5" t="n">
@@ -5297,7 +5071,7 @@
       <c r="J127" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M127" s="36" t="s">
+      <c r="M127" s="35" t="s">
         <v>149</v>
       </c>
       <c r="N127" s="5" t="n">
@@ -5335,7 +5109,7 @@
       <c r="J128" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M128" s="36" t="s">
+      <c r="M128" s="35" t="s">
         <v>149</v>
       </c>
       <c r="N128" s="5" t="n">
@@ -5373,7 +5147,7 @@
       <c r="J129" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M129" s="36" t="s">
+      <c r="M129" s="35" t="s">
         <v>149</v>
       </c>
       <c r="N129" s="5" t="n">
@@ -5539,7 +5313,7 @@
       <c r="J134" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M134" s="36" t="s">
+      <c r="M134" s="35" t="s">
         <v>162</v>
       </c>
       <c r="N134" s="5" t="n">
@@ -5577,7 +5351,7 @@
       <c r="J135" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M135" s="36" t="s">
+      <c r="M135" s="35" t="s">
         <v>162</v>
       </c>
       <c r="N135" s="5" t="n">
@@ -5615,7 +5389,7 @@
       <c r="J136" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M136" s="36" t="s">
+      <c r="M136" s="35" t="s">
         <v>162</v>
       </c>
       <c r="N136" s="5" t="n">
@@ -5653,7 +5427,7 @@
       <c r="J137" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M137" s="36" t="s">
+      <c r="M137" s="35" t="s">
         <v>162</v>
       </c>
       <c r="N137" s="5" t="n">
@@ -5691,7 +5465,7 @@
       <c r="J138" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M138" s="36" t="s">
+      <c r="M138" s="35" t="s">
         <v>162</v>
       </c>
       <c r="N138" s="5" t="n">
@@ -5729,7 +5503,7 @@
       <c r="J139" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M139" s="36" t="s">
+      <c r="M139" s="35" t="s">
         <v>162</v>
       </c>
       <c r="N139" s="5" t="n">
@@ -5764,7 +5538,7 @@
       <c r="J140" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K140" s="37" t="n">
+      <c r="K140" s="36" t="n">
         <v>1</v>
       </c>
       <c r="N140" s="5" t="n">
@@ -5799,7 +5573,7 @@
       <c r="J141" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K141" s="37" t="n">
+      <c r="K141" s="36" t="n">
         <v>1</v>
       </c>
       <c r="N141" s="5" t="n">
@@ -5837,7 +5611,7 @@
       <c r="J142" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M142" s="36" t="s">
+      <c r="M142" s="35" t="s">
         <v>172</v>
       </c>
       <c r="N142" s="5" t="n">
@@ -5875,7 +5649,7 @@
       <c r="J143" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M143" s="36" t="s">
+      <c r="M143" s="35" t="s">
         <v>172</v>
       </c>
       <c r="N143" s="5" t="n">
@@ -5913,7 +5687,7 @@
       <c r="J144" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M144" s="36" t="s">
+      <c r="M144" s="35" t="s">
         <v>172</v>
       </c>
       <c r="N144" s="5" t="n">
@@ -5951,7 +5725,7 @@
       <c r="J145" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M145" s="36" t="s">
+      <c r="M145" s="35" t="s">
         <v>172</v>
       </c>
       <c r="N145" s="5" t="n">
@@ -5989,7 +5763,7 @@
       <c r="J146" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M146" s="36" t="s">
+      <c r="M146" s="35" t="s">
         <v>172</v>
       </c>
       <c r="N146" s="5" t="n">
@@ -6027,7 +5801,7 @@
       <c r="J147" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M147" s="36" t="s">
+      <c r="M147" s="35" t="s">
         <v>172</v>
       </c>
       <c r="N147" s="5" t="n">
@@ -6065,7 +5839,7 @@
       <c r="J148" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M148" s="36" t="s">
+      <c r="M148" s="35" t="s">
         <v>172</v>
       </c>
       <c r="N148" s="5" t="n">
@@ -6103,7 +5877,7 @@
       <c r="J149" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M149" s="36" t="s">
+      <c r="M149" s="35" t="s">
         <v>172</v>
       </c>
       <c r="N149" s="5" t="n">
@@ -6256,7 +6030,9 @@
       </c>
       <c r="F154" s="23"/>
       <c r="G154" s="24"/>
-      <c r="H154" s="25"/>
+      <c r="H154" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="L154" s="4" t="s">
         <v>186</v>
       </c>
@@ -6279,7 +6055,9 @@
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="24"/>
-      <c r="H155" s="25"/>
+      <c r="H155" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="L155" s="4" t="s">
         <v>186</v>
       </c>
@@ -6302,7 +6080,9 @@
       </c>
       <c r="F156" s="23"/>
       <c r="G156" s="24"/>
-      <c r="H156" s="25"/>
+      <c r="H156" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="L156" s="4" t="s">
         <v>186</v>
       </c>
@@ -6325,7 +6105,9 @@
       </c>
       <c r="F157" s="23"/>
       <c r="G157" s="24"/>
-      <c r="H157" s="25"/>
+      <c r="H157" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="L157" s="4" t="s">
         <v>186</v>
       </c>

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -1105,9 +1105,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>434880</xdr:colOff>
+      <xdr:colOff>434520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>327600</xdr:rowOff>
+      <xdr:rowOff>327240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1121,7 +1121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="41193360" y="1493280"/>
-          <a:ext cx="8528400" cy="7139520"/>
+          <a:ext cx="8528040" cy="7139160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1148,7 +1148,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
-      <selection pane="bottomRight" activeCell="H154" activeCellId="0" sqref="H154:H157"/>
+      <selection pane="bottomRight" activeCell="G154" activeCellId="0" sqref="G154:G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6029,7 +6029,9 @@
         <v>16</v>
       </c>
       <c r="F154" s="23"/>
-      <c r="G154" s="24"/>
+      <c r="G154" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="H154" s="25" t="n">
         <v>1</v>
       </c>
@@ -6054,7 +6056,9 @@
         <v>16</v>
       </c>
       <c r="F155" s="23"/>
-      <c r="G155" s="24"/>
+      <c r="G155" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="H155" s="25" t="n">
         <v>1</v>
       </c>
@@ -6079,7 +6083,9 @@
         <v>16</v>
       </c>
       <c r="F156" s="23"/>
-      <c r="G156" s="24"/>
+      <c r="G156" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="H156" s="25" t="n">
         <v>1</v>
       </c>
@@ -6104,7 +6110,9 @@
         <v>16</v>
       </c>
       <c r="F157" s="23"/>
-      <c r="G157" s="24"/>
+      <c r="G157" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="H157" s="25" t="n">
         <v>1</v>
       </c>

--- a/public/steps.xlsx
+++ b/public/steps.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="191">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -139,39 +139,39 @@
     <t xml:space="preserve">Козлик с левой</t>
   </si>
   <si>
+    <t xml:space="preserve">Козлик с правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выпад вперёд наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выпад вперёд наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выпад вперёд внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выпад вперёд внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выпад назад наружу на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выпад назад наружу на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выпад назад внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выпад назад внутрь на левой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выпад вперёд на правой</t>
+  </si>
+  <si>
     <t xml:space="preserve">два ребра</t>
   </si>
   <si>
-    <t xml:space="preserve">Козлик с правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выпад вперёд наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выпад вперёд наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выпад вперёд внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выпад вперёд внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выпад назад наружу на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выпад назад наружу на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выпад назад внутрь на правой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выпад назад внутрь на левой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выпад вперёд на правой</t>
-  </si>
-  <si>
     <t xml:space="preserve">Выпад вперёд на левой</t>
   </si>
   <si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ласточка вперед внутрь на правой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ласточка или ее вариации, переход толчком через подсечку</t>
   </si>
   <si>
     <t xml:space="preserve">Ласточка назад наружу на правой</t>
@@ -600,7 +603,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -653,6 +656,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11.5"/>
@@ -873,7 +882,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1006,6 +1015,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1014,7 +1027,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1105,9 +1118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>434520</xdr:colOff>
+      <xdr:colOff>434160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>327240</xdr:rowOff>
+      <xdr:rowOff>326880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1121,7 +1134,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="41193360" y="1493280"/>
-          <a:ext cx="8528040" cy="7139160"/>
+          <a:ext cx="8527680" cy="7138800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1144,11 +1157,11 @@
   <dimension ref="A1:P998"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
-      <selection pane="bottomRight" activeCell="G154" activeCellId="0" sqref="G154:G157"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1725,10 +1738,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="23" t="n">
         <v>0</v>
@@ -1745,7 +1758,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>20</v>
@@ -1754,10 +1767,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="F21" s="23" t="n">
         <v>0</v>
@@ -1774,7 +1787,7 @@
     </row>
     <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>20</v>
@@ -1800,7 +1813,7 @@
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>19</v>
@@ -1826,7 +1839,7 @@
     </row>
     <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>20</v>
@@ -1852,7 +1865,7 @@
     </row>
     <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>19</v>
@@ -1878,7 +1891,7 @@
     </row>
     <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>20</v>
@@ -1904,7 +1917,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>19</v>
@@ -1930,7 +1943,7 @@
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>20</v>
@@ -1956,7 +1969,7 @@
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>19</v>
@@ -1982,7 +1995,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>20</v>
@@ -1991,10 +2004,10 @@
         <v>20</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F30" s="23" t="n">
         <v>0</v>
@@ -2017,10 +2030,10 @@
         <v>19</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F31" s="23" t="n">
         <v>0</v>
@@ -2043,10 +2056,10 @@
         <v>20</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F32" s="23" t="n">
         <v>180</v>
@@ -2069,10 +2082,10 @@
         <v>19</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F33" s="23" t="n">
         <v>180</v>
@@ -2467,7 +2480,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>21</v>
@@ -2491,7 +2504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="18" t="s">
         <v>68</v>
       </c>
@@ -2502,7 +2515,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>16</v>
@@ -2520,7 +2533,7 @@
         <v>58</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N47" s="5" t="n">
         <v>3</v>
@@ -2528,7 +2541,7 @@
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>19</v>
@@ -2536,8 +2549,8 @@
       <c r="C48" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="21" t="s">
-        <v>39</v>
+      <c r="D48" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>21</v>
@@ -2561,9 +2574,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>19</v>
@@ -2572,7 +2585,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>16</v>
@@ -2589,8 +2602,8 @@
       <c r="J49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>67</v>
+      <c r="L49" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="N49" s="5" t="n">
         <v>3</v>
@@ -2598,7 +2611,7 @@
     </row>
     <row r="50" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>20</v>
@@ -2607,7 +2620,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>21</v>
@@ -2633,7 +2646,7 @@
     </row>
     <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>20</v>
@@ -2642,7 +2655,7 @@
         <v>19</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E51" s="22" t="s">
         <v>16</v>
@@ -2668,7 +2681,7 @@
     </row>
     <row r="52" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>20</v>
@@ -2677,7 +2690,7 @@
         <v>19</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E52" s="22" t="s">
         <v>21</v>
@@ -2703,7 +2716,7 @@
     </row>
     <row r="53" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>20</v>
@@ -2712,7 +2725,7 @@
         <v>19</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>16</v>
@@ -2738,7 +2751,7 @@
     </row>
     <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>19</v>
@@ -2747,10 +2760,10 @@
         <v>20</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F54" s="23" t="n">
         <v>0</v>
@@ -2767,7 +2780,7 @@
     </row>
     <row r="55" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>20</v>
@@ -2776,10 +2789,10 @@
         <v>19</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F55" s="23" t="n">
         <v>0</v>
@@ -2796,7 +2809,7 @@
     </row>
     <row r="56" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>20</v>
@@ -2805,10 +2818,10 @@
         <v>20</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F56" s="23" t="n">
         <v>0</v>
@@ -2825,7 +2838,7 @@
     </row>
     <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>19</v>
@@ -2834,10 +2847,10 @@
         <v>19</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F57" s="23" t="n">
         <v>0</v>
@@ -2854,7 +2867,7 @@
     </row>
     <row r="58" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>20</v>
@@ -2863,10 +2876,10 @@
         <v>20</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F58" s="23" t="n">
         <v>180</v>
@@ -2883,7 +2896,7 @@
     </row>
     <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>19</v>
@@ -2892,10 +2905,10 @@
         <v>19</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F59" s="23" t="n">
         <v>180</v>
@@ -2912,7 +2925,7 @@
     </row>
     <row r="60" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>20</v>
@@ -2941,7 +2954,7 @@
     </row>
     <row r="61" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>20</v>
@@ -2970,7 +2983,7 @@
     </row>
     <row r="62" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>20</v>
@@ -2999,7 +3012,7 @@
     </row>
     <row r="63" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>20</v>
@@ -3028,7 +3041,7 @@
     </row>
     <row r="64" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>19</v>
@@ -3057,7 +3070,7 @@
     </row>
     <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>19</v>
@@ -3086,7 +3099,7 @@
     </row>
     <row r="66" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>19</v>
@@ -3115,7 +3128,7 @@
     </row>
     <row r="67" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>19</v>
@@ -3144,7 +3157,7 @@
     </row>
     <row r="68" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>20</v>
@@ -3170,7 +3183,7 @@
     </row>
     <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>20</v>
@@ -3196,7 +3209,7 @@
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>20</v>
@@ -3222,7 +3235,7 @@
     </row>
     <row r="71" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>20</v>
@@ -3248,7 +3261,7 @@
     </row>
     <row r="72" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>19</v>
@@ -3274,7 +3287,7 @@
     </row>
     <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>19</v>
@@ -3300,7 +3313,7 @@
     </row>
     <row r="74" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>19</v>
@@ -3326,7 +3339,7 @@
     </row>
     <row r="75" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>19</v>
@@ -3352,7 +3365,7 @@
     </row>
     <row r="76" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>20</v>
@@ -3381,7 +3394,7 @@
     </row>
     <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>19</v>
@@ -3407,7 +3420,7 @@
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>20</v>
@@ -3431,12 +3444,12 @@
         <v>0</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>19</v>
@@ -3460,12 +3473,12 @@
         <v>0</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>20</v>
@@ -3489,12 +3502,12 @@
         <v>0</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>19</v>
@@ -3517,13 +3530,13 @@
       <c r="H81" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="J81" s="33" t="s">
-        <v>100</v>
+      <c r="J81" s="34" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>20</v>
@@ -3549,7 +3562,7 @@
     </row>
     <row r="83" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>19</v>
@@ -3575,7 +3588,7 @@
     </row>
     <row r="84" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>20</v>
@@ -3601,7 +3614,7 @@
     </row>
     <row r="85" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>19</v>
@@ -3627,7 +3640,7 @@
     </row>
     <row r="86" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>20</v>
@@ -3653,7 +3666,7 @@
     </row>
     <row r="87" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>19</v>
@@ -3679,7 +3692,7 @@
     </row>
     <row r="88" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>20</v>
@@ -3705,7 +3718,7 @@
     </row>
     <row r="89" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>19</v>
@@ -3731,7 +3744,7 @@
     </row>
     <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>20</v>
@@ -3755,12 +3768,12 @@
         <v>0</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>20</v>
@@ -3784,12 +3797,12 @@
         <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>20</v>
@@ -3813,12 +3826,12 @@
         <v>0</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>20</v>
@@ -3842,12 +3855,12 @@
         <v>0</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>19</v>
@@ -3871,12 +3884,12 @@
         <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>19</v>
@@ -3900,12 +3913,12 @@
         <v>0</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>19</v>
@@ -3929,12 +3942,12 @@
         <v>0</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>19</v>
@@ -3958,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M97" s="34"/>
+        <v>114</v>
+      </c>
+      <c r="M97" s="35"/>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>20</v>
@@ -3991,10 +4004,10 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M98" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="M98" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="N98" s="5" t="n">
         <v>2</v>
@@ -4002,7 +4015,7 @@
     </row>
     <row r="99" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>20</v>
@@ -4029,10 +4042,10 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M99" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="M99" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="N99" s="5" t="n">
         <v>2</v>
@@ -4040,7 +4053,7 @@
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>20</v>
@@ -4067,10 +4080,10 @@
         <v>1</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M100" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="M100" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="N100" s="5" t="n">
         <v>2</v>
@@ -4078,7 +4091,7 @@
     </row>
     <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>20</v>
@@ -4105,10 +4118,10 @@
         <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M101" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="M101" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="N101" s="5" t="n">
         <v>2</v>
@@ -4116,7 +4129,7 @@
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B102" s="19" t="s">
         <v>19</v>
@@ -4143,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M102" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="M102" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="N102" s="5" t="n">
         <v>2</v>
@@ -4154,7 +4167,7 @@
     </row>
     <row r="103" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>19</v>
@@ -4181,10 +4194,10 @@
         <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M103" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="M103" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="N103" s="5" t="n">
         <v>2</v>
@@ -4192,7 +4205,7 @@
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>19</v>
@@ -4219,10 +4232,10 @@
         <v>1</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M104" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="M104" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="N104" s="5" t="n">
         <v>2</v>
@@ -4230,7 +4243,7 @@
     </row>
     <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B105" s="19" t="s">
         <v>19</v>
@@ -4257,10 +4270,10 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M105" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="M105" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="N105" s="5" t="n">
         <v>2</v>
@@ -4268,7 +4281,7 @@
     </row>
     <row r="106" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>20</v>
@@ -4295,10 +4308,10 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M106" s="35" t="s">
-        <v>131</v>
+        <v>114</v>
+      </c>
+      <c r="M106" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="N106" s="5" t="n">
         <v>2</v>
@@ -4306,7 +4319,7 @@
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B107" s="19" t="s">
         <v>20</v>
@@ -4333,10 +4346,10 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M107" s="35" t="s">
-        <v>131</v>
+        <v>114</v>
+      </c>
+      <c r="M107" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="N107" s="5" t="n">
         <v>2</v>
@@ -4344,7 +4357,7 @@
     </row>
     <row r="108" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B108" s="19" t="s">
         <v>20</v>
@@ -4371,10 +4384,10 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M108" s="35" t="s">
-        <v>131</v>
+        <v>114</v>
+      </c>
+      <c r="M108" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="N108" s="5" t="n">
         <v>2</v>
@@ -4382,7 +4395,7 @@
     </row>
     <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B109" s="19" t="s">
         <v>20</v>
@@ -4409,10 +4422,10 @@
         <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M109" s="35" t="s">
-        <v>131</v>
+        <v>114</v>
+      </c>
+      <c r="M109" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="N109" s="5" t="n">
         <v>2</v>
@@ -4420,7 +4433,7 @@
     </row>
     <row r="110" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B110" s="19" t="s">
         <v>19</v>
@@ -4447,10 +4460,10 @@
         <v>1</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M110" s="35" t="s">
-        <v>131</v>
+        <v>114</v>
+      </c>
+      <c r="M110" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="N110" s="5" t="n">
         <v>2</v>
@@ -4458,7 +4471,7 @@
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B111" s="19" t="s">
         <v>19</v>
@@ -4485,10 +4498,10 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M111" s="35" t="s">
-        <v>131</v>
+        <v>114</v>
+      </c>
+      <c r="M111" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="N111" s="5" t="n">
         <v>2</v>
@@ -4496,7 +4509,7 @@
     </row>
     <row r="112" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B112" s="19" t="s">
         <v>19</v>
@@ -4523,10 +4536,10 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M112" s="35" t="s">
-        <v>131</v>
+        <v>114</v>
+      </c>
+      <c r="M112" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="N112" s="5" t="n">
         <v>2</v>
@@ -4534,7 +4547,7 @@
     </row>
     <row r="113" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B113" s="19" t="s">
         <v>19</v>
@@ -4561,10 +4574,10 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M113" s="35" t="s">
-        <v>131</v>
+        <v>114</v>
+      </c>
+      <c r="M113" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="N113" s="5" t="n">
         <v>2</v>
@@ -4572,7 +4585,7 @@
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B114" s="19" t="s">
         <v>20</v>
@@ -4599,15 +4612,15 @@
         <v>1</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M114" s="35" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="M114" s="36" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>20</v>
@@ -4634,15 +4647,15 @@
         <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M115" s="35" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="M115" s="36" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B116" s="19" t="s">
         <v>20</v>
@@ -4669,15 +4682,15 @@
         <v>1</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M116" s="35" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="M116" s="36" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B117" s="19" t="s">
         <v>20</v>
@@ -4704,15 +4717,15 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M117" s="35" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="M117" s="36" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B118" s="19" t="s">
         <v>19</v>
@@ -4739,15 +4752,15 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M118" s="35" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="M118" s="36" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B119" s="19" t="s">
         <v>19</v>
@@ -4774,15 +4787,15 @@
         <v>1</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M119" s="35" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="M119" s="36" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B120" s="19" t="s">
         <v>19</v>
@@ -4809,15 +4822,15 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M120" s="35" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="M120" s="36" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B121" s="19" t="s">
         <v>19</v>
@@ -4844,15 +4857,15 @@
         <v>1</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M121" s="35" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="M121" s="36" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B122" s="19" t="s">
         <v>20</v>
@@ -4879,10 +4892,10 @@
         <v>1</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M122" s="35" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="M122" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="N122" s="5" t="n">
         <v>3</v>
@@ -4890,7 +4903,7 @@
     </row>
     <row r="123" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>20</v>
@@ -4917,10 +4930,10 @@
         <v>1</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M123" s="35" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="M123" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="N123" s="5" t="n">
         <v>3</v>
@@ -4928,7 +4941,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" s="19" t="s">
         <v>20</v>
@@ -4955,10 +4968,10 @@
         <v>1</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M124" s="35" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="M124" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="N124" s="5" t="n">
         <v>3</v>
@@ -4966,7 +4979,7 @@
     </row>
     <row r="125" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>20</v>
@@ -4993,10 +5006,10 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M125" s="35" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="M125" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="N125" s="5" t="n">
         <v>3</v>
@@ -5004,7 +5017,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>19</v>
@@ -5031,10 +5044,10 @@
         <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M126" s="35" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="M126" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="N126" s="5" t="n">
         <v>3</v>
@@ -5042,7 +5055,7 @@
     </row>
     <row r="127" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>19</v>
@@ -5069,10 +5082,10 @@
         <v>1</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M127" s="35" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="M127" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="N127" s="5" t="n">
         <v>3</v>
@@ -5080,7 +5093,7 @@
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>19</v>
@@ -5107,10 +5120,10 @@
         <v>1</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M128" s="35" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="M128" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="N128" s="5" t="n">
         <v>3</v>
@@ -5118,7 +5131,7 @@
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>19</v>
@@ -5145,10 +5158,10 @@
         <v>1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M129" s="35" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="M129" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="N129" s="5" t="n">
         <v>3</v>
@@ -5156,7 +5169,7 @@
     </row>
     <row r="130" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>20</v>
@@ -5180,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N130" s="5" t="n">
         <v>2</v>
@@ -5188,7 +5201,7 @@
     </row>
     <row r="131" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>20</v>
@@ -5212,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N131" s="5" t="n">
         <v>2</v>
@@ -5220,7 +5233,7 @@
     </row>
     <row r="132" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B132" s="19" t="s">
         <v>19</v>
@@ -5244,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N132" s="5" t="n">
         <v>2</v>
@@ -5252,7 +5265,7 @@
     </row>
     <row r="133" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>19</v>
@@ -5276,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N133" s="5" t="n">
         <v>2</v>
@@ -5284,7 +5297,7 @@
     </row>
     <row r="134" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>20</v>
@@ -5311,10 +5324,10 @@
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M134" s="35" t="s">
-        <v>162</v>
+        <v>101</v>
+      </c>
+      <c r="M134" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="N134" s="5" t="n">
         <v>2</v>
@@ -5322,7 +5335,7 @@
     </row>
     <row r="135" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>20</v>
@@ -5349,10 +5362,10 @@
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M135" s="35" t="s">
-        <v>162</v>
+        <v>101</v>
+      </c>
+      <c r="M135" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="N135" s="5" t="n">
         <v>2</v>
@@ -5360,7 +5373,7 @@
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>20</v>
@@ -5387,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M136" s="35" t="s">
-        <v>162</v>
+        <v>101</v>
+      </c>
+      <c r="M136" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="N136" s="5" t="n">
         <v>2</v>
@@ -5398,7 +5411,7 @@
     </row>
     <row r="137" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>19</v>
@@ -5425,10 +5438,10 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M137" s="35" t="s">
-        <v>162</v>
+        <v>101</v>
+      </c>
+      <c r="M137" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="N137" s="5" t="n">
         <v>2</v>
@@ -5436,7 +5449,7 @@
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B138" s="19" t="s">
         <v>19</v>
@@ -5463,10 +5476,10 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M138" s="35" t="s">
-        <v>162</v>
+        <v>101</v>
+      </c>
+      <c r="M138" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="N138" s="5" t="n">
         <v>2</v>
@@ -5474,7 +5487,7 @@
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B139" s="19" t="s">
         <v>19</v>
@@ -5501,10 +5514,10 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M139" s="35" t="s">
-        <v>162</v>
+        <v>101</v>
+      </c>
+      <c r="M139" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="N139" s="5" t="n">
         <v>2</v>
@@ -5512,7 +5525,7 @@
     </row>
     <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B140" s="19" t="s">
         <v>19</v>
@@ -5536,9 +5549,9 @@
         <v>1</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K140" s="36" t="n">
+        <v>170</v>
+      </c>
+      <c r="K140" s="37" t="n">
         <v>1</v>
       </c>
       <c r="N140" s="5" t="n">
@@ -5547,7 +5560,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B141" s="19" t="s">
         <v>20</v>
@@ -5571,9 +5584,9 @@
         <v>1</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K141" s="36" t="n">
+        <v>170</v>
+      </c>
+      <c r="K141" s="37" t="n">
         <v>1</v>
       </c>
       <c r="N141" s="5" t="n">
@@ -5582,7 +5595,7 @@
     </row>
     <row r="142" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>20</v>
@@ -5609,10 +5622,10 @@
         <v>1</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M142" s="35" t="s">
-        <v>172</v>
+        <v>114</v>
+      </c>
+      <c r="M142" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="N142" s="5" t="n">
         <v>2</v>
@@ -5620,7 +5633,7 @@
     </row>
     <row r="143" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>20</v>
@@ -5647,10 +5660,10 @@
         <v>1</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M143" s="35" t="s">
-        <v>172</v>
+        <v>114</v>
+      </c>
+      <c r="M143" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="N143" s="5" t="n">
         <v>2</v>
@@ -5658,7 +5671,7 @@
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>20</v>
@@ -5685,10 +5698,10 @@
         <v>1</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M144" s="35" t="s">
-        <v>172</v>
+        <v>114</v>
+      </c>
+      <c r="M144" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="N144" s="5" t="n">
         <v>2</v>
@@ -5696,7 +5709,7 @@
     </row>
     <row r="145" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B145" s="19" t="s">
         <v>20</v>
@@ -5723,10 +5736,10 @@
         <v>1</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M145" s="35" t="s">
-        <v>172</v>
+        <v>114</v>
+      </c>
+      <c r="M145" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="N145" s="5" t="n">
         <v>2</v>
@@ -5734,7 +5747,7 @@
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>19</v>
@@ -5761,10 +5774,10 @@
         <v>1</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M146" s="35" t="s">
-        <v>172</v>
+        <v>114</v>
+      </c>
+      <c r="M146" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="N146" s="5" t="n">
         <v>2</v>
@@ -5772,7 +5785,7 @@
     </row>
     <row r="147" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>19</v>
@@ -5799,10 +5812,10 @@
         <v>1</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M147" s="35" t="s">
-        <v>172</v>
+        <v>114</v>
+      </c>
+      <c r="M147" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="N147" s="5" t="n">
         <v>2</v>
@@ -5810,7 +5823,7 @@
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>19</v>
@@ -5837,10 +5850,10 @@
         <v>1</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M148" s="35" t="s">
-        <v>172</v>
+        <v>114</v>
+      </c>
+      <c r="M148" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="N148" s="5" t="n">
         <v>2</v>
@@ -5848,7 +5861,7 @@
     </row>
     <row r="149" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>19</v>
@@ -5875,10 +5888,10 @@
         <v>1</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M149" s="35" t="s">
-        <v>172</v>
+        <v>114</v>
+      </c>
+      <c r="M149" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="N149" s="5" t="n">
         <v>2</v>
@@ -5886,7 +5899,7 @@
     </row>
     <row r="150" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>19</v>
@@ -5910,15 +5923,15 @@
         <v>1</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M150" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>20</v>
@@ -5942,15 +5955,15 @@
         <v>1</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M151" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>20</v>
@@ -5974,15 +5987,15 @@
         <v>1</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>19</v>
@@ -6006,15 +6019,15 @@
         <v>1</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>19</v>
@@ -6036,12 +6049,12 @@
         <v>1</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>20</v>
@@ -6063,12 +6076,12 @@
         <v>1</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>20</v>
@@ -6090,12 +6103,12 @@
         <v>1</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>19</v>
@@ -6117,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14536,7 +14549,7 @@
       <formula1>"step,turn,sequence,hop,glide,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D17:D144 E143 D145:E157 D158:D1149" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D17:D22 E20:E21 D23:D47 D49:D144 E143 D145:E157 D158:D1149" type="list">
       <formula1>"внутреннее,наружное,два ребра"</formula1>
       <formula2>0</formula2>
     </dataValidation>
